--- a/DDAf_2023_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab09.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -2810,7 +2810,7 @@
         <v>4.3316446855431696</v>
       </c>
       <c r="I48" s="19">
-        <v>25.589472023502601</v>
+        <v>25.589472022502601</v>
       </c>
       <c r="J48" s="20">
         <v>1.9010442827552201</v>
@@ -2961,7 +2961,7 @@
         <v>78.819999999999993</v>
       </c>
       <c r="F53" s="19">
-        <v>80.320238558509104</v>
+        <v>80.3202285585091</v>
       </c>
       <c r="G53" s="19">
         <v>18.6920317967638</v>
@@ -3356,7 +3356,7 @@
         <v>130</v>
       </c>
       <c r="C66" s="42">
-        <v>62.494943820234703</v>
+        <v>62.494943820224698</v>
       </c>
       <c r="D66" s="42">
         <v>52.2492134831461</v>

--- a/DDAf_2023_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5691C03-BCDD-468C-86FF-E8B8251BF74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72FE38F7-5850-4781-B0BA-F27E5DC8515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{41F8D9FA-005D-4DDF-B85F-F7DEDD1F2772}"/>
+    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{E7EE3F38-C4C0-4E5B-8A07-903DAF8C6F78}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
   <si>
     <t>Tableau 9 : Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -48,19 +48,19 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>% de la population en extrême pauvreté ($2.15 par jour, mesure la plus récente 2012-21)(1)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous $3.65 par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure (mesure la plus récente 2012-21)(1)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous $6.85 par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure (mesure la plus récente 2012-21))(1)</t>
-  </si>
-  <si>
-    <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2012-21)</t>
-  </si>
-  <si>
-    <t>Part des revenus détenus par les 20% de la population ayant les revenus les plus élevés (estimation de la Banque mondiale, mesure la plus récente, 2012-21)</t>
+    <t>% de la population en extrême pauvreté ($2.15 par jour, mesure la plus récente 2013-22)(1)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous $3.65 par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure (mesure la plus récente 2013-22)(1)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous $6.85 par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure (mesure la plus récente 2013-22))(1)</t>
+  </si>
+  <si>
+    <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2013-22)</t>
+  </si>
+  <si>
+    <t>Part des revenus détenus par les 20% de la population ayant les revenus les plus élevés (estimation de la Banque mondiale, mesure la plus récente, 2013-22)</t>
   </si>
   <si>
     <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 ans et plus), 2019</t>
@@ -547,9 +547,6 @@
   </si>
   <si>
     <t>(1) Pourcentage de ménages dont les revenus pour l'année la plus récente rapportée entre 2010 et 2019 en dollars PPA 2017 en dessous du seuil de pauvreté défini par la Banque mondiale ; PRII = "pays à revenu intermédiaire de la tranche inférieure" ; PRIS = "pays à revenu intermédiaire supérieur";</t>
-  </si>
-  <si>
-    <t>Source : Indicateurs du développement dans le monde issus des statistiques du FMI sur la balance des paiements (bases de données et communiqués des banques centrales, des agences nationales de statistique et des bureaux pays de la Banque mondiale - récupérés le 16/09/2020), Organisation internationale du travail - ILOSTAT (récupéré le 26/09/2022).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1418,7 +1415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BD472F-F305-456C-94EE-7D483FCFAD2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A0BB1D-0BC8-455C-B31F-1D71D734E12D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1518,25 +1515,25 @@
         <v>55.6</v>
       </c>
       <c r="H3" s="12">
-        <v>47.6</v>
+        <v>46.08</v>
       </c>
       <c r="I3" s="12">
-        <v>49</v>
+        <v>47.39</v>
       </c>
       <c r="J3" s="13">
-        <v>46.2</v>
+        <v>44.76</v>
       </c>
       <c r="K3" s="12">
-        <v>52.8</v>
+        <v>51.16</v>
       </c>
       <c r="L3" s="12">
-        <v>51.8</v>
+        <v>50.41</v>
       </c>
       <c r="M3" s="13">
-        <v>53.8</v>
+        <v>51.91</v>
       </c>
       <c r="N3" s="14">
-        <v>16564.84</v>
+        <v>16064.85</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1562,25 +1559,25 @@
         <v>58.5</v>
       </c>
       <c r="H4" s="17">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I4" s="17">
-        <v>8.9</v>
+        <v>10.32</v>
       </c>
       <c r="J4" s="18">
-        <v>8.1</v>
+        <v>7.32</v>
       </c>
       <c r="K4" s="17">
-        <v>12</v>
+        <v>12.87</v>
       </c>
       <c r="L4" s="17">
-        <v>11</v>
+        <v>11.78</v>
       </c>
       <c r="M4" s="18">
-        <v>12.8</v>
+        <v>13.74</v>
       </c>
       <c r="N4" s="19">
-        <v>52839.32</v>
+        <v>40940.839999999997</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1606,25 +1603,25 @@
         <v>60.2</v>
       </c>
       <c r="H5" s="22">
-        <v>20.9</v>
+        <v>20.72</v>
       </c>
       <c r="I5" s="22">
-        <v>22.6</v>
+        <v>28</v>
       </c>
       <c r="J5" s="23">
-        <v>19.5</v>
+        <v>14.51</v>
       </c>
       <c r="K5" s="22">
-        <v>28.6</v>
+        <v>28.78</v>
       </c>
       <c r="L5" s="22">
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="M5" s="23">
-        <v>30.5</v>
+        <v>30.01</v>
       </c>
       <c r="N5" s="24">
-        <v>36798.04</v>
+        <v>33996.120000000003</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1650,25 +1647,25 @@
         <v>49.8</v>
       </c>
       <c r="H6" s="22">
-        <v>18.3</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="I6" s="22">
-        <v>17</v>
+        <v>17.03</v>
       </c>
       <c r="J6" s="23">
-        <v>19.5</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="K6" s="22">
-        <v>24.6</v>
+        <v>25.15</v>
       </c>
       <c r="L6" s="22">
-        <v>19.7</v>
+        <v>18.75</v>
       </c>
       <c r="M6" s="23">
-        <v>27.7</v>
+        <v>28.88</v>
       </c>
       <c r="N6" s="24">
-        <v>7056.04</v>
+        <v>6843.35</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1694,25 +1691,25 @@
         <v>46.2</v>
       </c>
       <c r="H7" s="22">
-        <v>64.2</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="I7" s="22">
-        <v>67.7</v>
+        <v>72.86</v>
       </c>
       <c r="J7" s="23">
-        <v>61</v>
+        <v>65.2</v>
       </c>
       <c r="K7" s="22">
-        <v>63.7</v>
+        <v>68.37</v>
       </c>
       <c r="L7" s="22">
-        <v>63.9</v>
+        <v>68.37</v>
       </c>
       <c r="M7" s="23">
-        <v>63.5</v>
+        <v>68.37</v>
       </c>
       <c r="N7" s="24">
-        <v>3724.21</v>
+        <v>4115.6000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1738,25 +1735,25 @@
         <v>59.5</v>
       </c>
       <c r="H8" s="22">
-        <v>58.7</v>
+        <v>58.85</v>
       </c>
       <c r="I8" s="22">
-        <v>62.1</v>
+        <v>62.48</v>
       </c>
       <c r="J8" s="23">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K8" s="22">
-        <v>59.1</v>
+        <v>59.43</v>
       </c>
       <c r="L8" s="22">
-        <v>63.5</v>
+        <v>64.45</v>
       </c>
       <c r="M8" s="23">
-        <v>54.5</v>
+        <v>54.18</v>
       </c>
       <c r="N8" s="24">
-        <v>2923.32</v>
+        <v>2924.12</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1782,25 +1779,25 @@
         <v>63.7</v>
       </c>
       <c r="H9" s="22">
-        <v>10.7</v>
+        <v>10.51</v>
       </c>
       <c r="I9" s="22">
-        <v>11.8</v>
+        <v>12.34</v>
       </c>
       <c r="J9" s="23">
-        <v>9.5</v>
+        <v>8.66</v>
       </c>
       <c r="K9" s="22">
-        <v>15.7</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="L9" s="22">
-        <v>18.2</v>
+        <v>18.87</v>
       </c>
       <c r="M9" s="23">
-        <v>13.7</v>
+        <v>14.24</v>
       </c>
       <c r="N9" s="24">
-        <v>30910.38</v>
+        <v>30931.31</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1826,25 +1823,25 @@
         <v>68.2</v>
       </c>
       <c r="H10" s="22">
-        <v>7.5</v>
+        <v>7.37</v>
       </c>
       <c r="I10" s="22">
-        <v>7.6</v>
+        <v>8.11</v>
       </c>
       <c r="J10" s="23">
-        <v>7.3</v>
+        <v>6.75</v>
       </c>
       <c r="K10" s="22">
-        <v>8.6</v>
+        <v>8.94</v>
       </c>
       <c r="L10" s="22">
-        <v>7.4</v>
+        <v>7.74</v>
       </c>
       <c r="M10" s="23">
-        <v>9.4</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="N10" s="24">
-        <v>45010.54</v>
+        <v>43358.720000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1870,25 +1867,25 @@
         <v>61.3</v>
       </c>
       <c r="H11" s="17">
-        <v>53.9</v>
+        <v>53.75</v>
       </c>
       <c r="I11" s="17">
-        <v>56</v>
+        <v>56.72</v>
       </c>
       <c r="J11" s="18">
-        <v>52</v>
+        <v>51.31</v>
       </c>
       <c r="K11" s="17">
-        <v>59</v>
+        <v>57.56</v>
       </c>
       <c r="L11" s="17">
-        <v>58.2</v>
+        <v>56.39</v>
       </c>
       <c r="M11" s="18">
-        <v>59.9</v>
+        <v>58.59</v>
       </c>
       <c r="N11" s="19">
-        <v>9133.98</v>
+        <v>9882.65</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1914,25 +1911,25 @@
         <v>51.1</v>
       </c>
       <c r="H12" s="22">
-        <v>35.6</v>
+        <v>34.880000000000003</v>
       </c>
       <c r="I12" s="22">
-        <v>36.700000000000003</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="J12" s="23">
-        <v>34.5</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="K12" s="22">
-        <v>39.299999999999997</v>
+        <v>42.45</v>
       </c>
       <c r="L12" s="22">
-        <v>39</v>
+        <v>40.11</v>
       </c>
       <c r="M12" s="23">
-        <v>39.5</v>
+        <v>44.36</v>
       </c>
       <c r="N12" s="24">
-        <v>5982.65</v>
+        <v>5799.66</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1958,25 +1955,25 @@
         <v>57.41</v>
       </c>
       <c r="H13" s="28">
-        <v>32.590000000000003</v>
+        <v>32.798999999999999</v>
       </c>
       <c r="I13" s="28">
-        <v>33.94</v>
+        <v>35.238</v>
       </c>
       <c r="J13" s="29">
-        <v>31.26</v>
+        <v>30.513999999999999</v>
       </c>
       <c r="K13" s="28">
-        <v>36.340000000000003</v>
+        <v>37.106000000000002</v>
       </c>
       <c r="L13" s="28">
-        <v>35.92</v>
+        <v>36.436999999999998</v>
       </c>
       <c r="M13" s="29">
-        <v>36.53</v>
+        <v>37.405999999999999</v>
       </c>
       <c r="N13" s="30">
-        <v>20990.870719785202</v>
+        <v>20296.959640759698</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -2002,25 +1999,25 @@
         <v>46.3</v>
       </c>
       <c r="H14" s="22">
-        <v>78</v>
+        <v>78.14</v>
       </c>
       <c r="I14" s="22">
-        <v>79.099999999999994</v>
+        <v>79.290000000000006</v>
       </c>
       <c r="J14" s="23">
-        <v>76.900000000000006</v>
+        <v>76.89</v>
       </c>
       <c r="K14" s="22">
-        <v>79.5</v>
+        <v>80.28</v>
       </c>
       <c r="L14" s="22">
-        <v>78.5</v>
+        <v>79.08</v>
       </c>
       <c r="M14" s="23">
-        <v>80.8</v>
+        <v>81.75</v>
       </c>
       <c r="N14" s="24">
-        <v>1737.59</v>
+        <v>1718.94</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -2046,25 +2043,25 @@
         <v>51.7</v>
       </c>
       <c r="H15" s="22">
-        <v>19.7</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="I15" s="22">
-        <v>22.2</v>
+        <v>22.65</v>
       </c>
       <c r="J15" s="23">
-        <v>17.399999999999999</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="K15" s="22">
-        <v>20.5</v>
+        <v>18.47</v>
       </c>
       <c r="L15" s="22">
-        <v>22</v>
+        <v>19.63</v>
       </c>
       <c r="M15" s="23">
-        <v>19.3</v>
+        <v>17.48</v>
       </c>
       <c r="N15" s="24">
-        <v>8528.6</v>
+        <v>9370.57</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2090,25 +2087,25 @@
         <v>43</v>
       </c>
       <c r="H16" s="22">
-        <v>62.6</v>
+        <v>61.59</v>
       </c>
       <c r="I16" s="22">
-        <v>64.099999999999994</v>
+        <v>62.36</v>
       </c>
       <c r="J16" s="23">
-        <v>61.3</v>
+        <v>60.96</v>
       </c>
       <c r="K16" s="22">
-        <v>65.8</v>
+        <v>63.43</v>
       </c>
       <c r="L16" s="22">
-        <v>65.3</v>
+        <v>62.79</v>
       </c>
       <c r="M16" s="23">
-        <v>66.2</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="N16" s="24">
-        <v>2477.41</v>
+        <v>2505.59</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -2134,25 +2131,25 @@
         <v>45.2</v>
       </c>
       <c r="H17" s="33">
-        <v>40</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="I17" s="33">
-        <v>42.5</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="J17" s="34">
-        <v>38.299999999999997</v>
+        <v>32.49</v>
       </c>
       <c r="K17" s="33">
-        <v>45.7</v>
+        <v>36.630000000000003</v>
       </c>
       <c r="L17" s="33">
-        <v>44.7</v>
+        <v>34.89</v>
       </c>
       <c r="M17" s="34">
-        <v>46.6</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="N17" s="35">
-        <v>4995.9799999999996</v>
+        <v>4864.01</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2178,25 +2175,25 @@
         <v>43</v>
       </c>
       <c r="H18" s="33">
-        <v>54</v>
+        <v>53.38</v>
       </c>
       <c r="I18" s="33">
-        <v>57.5</v>
+        <v>57.75</v>
       </c>
       <c r="J18" s="34">
-        <v>50.7</v>
+        <v>49.19</v>
       </c>
       <c r="K18" s="33">
-        <v>60.8</v>
+        <v>61.06</v>
       </c>
       <c r="L18" s="33">
-        <v>61.5</v>
+        <v>61.74</v>
       </c>
       <c r="M18" s="34">
-        <v>60.1</v>
+        <v>60.31</v>
       </c>
       <c r="N18" s="35">
-        <v>11582.76</v>
+        <v>10922.19</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -2206,41 +2203,41 @@
       <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="16">
-        <v>69.7</v>
-      </c>
-      <c r="D19" s="17">
-        <v>87.7</v>
-      </c>
-      <c r="E19" s="17">
-        <v>97.4</v>
-      </c>
-      <c r="F19" s="17">
-        <v>42.1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>48.4</v>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="H19" s="17">
-        <v>67.400000000000006</v>
+        <v>67.34</v>
       </c>
       <c r="I19" s="17">
-        <v>68.8</v>
+        <v>68.31</v>
       </c>
       <c r="J19" s="18">
-        <v>66.099999999999994</v>
+        <v>66.42</v>
       </c>
       <c r="K19" s="17">
-        <v>69.900000000000006</v>
+        <v>68.72</v>
       </c>
       <c r="L19" s="17">
-        <v>69.3</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="M19" s="18">
-        <v>70.599999999999994</v>
+        <v>69.5</v>
       </c>
       <c r="N19" s="19">
-        <v>3221.51</v>
+        <v>3149.35</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2284,7 +2281,7 @@
         <v>43</v>
       </c>
       <c r="N20" s="35">
-        <v>54761.05</v>
+        <v>50448.39</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -2310,25 +2307,25 @@
         <v>44.4</v>
       </c>
       <c r="H21" s="33">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="I21" s="33">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="J21" s="34">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="K21" s="33">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="L21" s="33">
-        <v>2.4</v>
+        <v>2.89</v>
       </c>
       <c r="M21" s="34">
-        <v>1.7</v>
+        <v>2.11</v>
       </c>
       <c r="N21" s="35">
-        <v>61025.21</v>
+        <v>60353.14</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2372,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="N22" s="24">
-        <v>15545.47</v>
+        <v>15097.27</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2383,40 +2380,40 @@
         <v>56</v>
       </c>
       <c r="C23" s="27">
-        <v>34.9166666666667</v>
+        <v>27.96</v>
       </c>
       <c r="D23" s="28">
-        <v>56.483333333333299</v>
+        <v>50.24</v>
       </c>
       <c r="E23" s="28">
-        <v>78.1666666666667</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="F23" s="28">
-        <v>40.5833333333333</v>
+        <v>40.28</v>
       </c>
       <c r="G23" s="29">
-        <v>47.316666666666698</v>
+        <v>47.1</v>
       </c>
       <c r="H23" s="28">
-        <v>46.171428571428599</v>
+        <v>44.915714285714301</v>
       </c>
       <c r="I23" s="28">
-        <v>48.071428571428598</v>
+        <v>46.581428571428603</v>
       </c>
       <c r="J23" s="29">
-        <v>44.542857142857102</v>
+        <v>43.421428571428599</v>
       </c>
       <c r="K23" s="28">
-        <v>49.171428571428599</v>
+        <v>47.287142857142904</v>
       </c>
       <c r="L23" s="28">
-        <v>49.1</v>
+        <v>47.0171428571429</v>
       </c>
       <c r="M23" s="29">
-        <v>49.328571428571401</v>
+        <v>47.601428571428599</v>
       </c>
       <c r="N23" s="30">
-        <v>5750.6667694936496</v>
+        <v>5757.0440802560497</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -2442,25 +2439,25 @@
         <v>50.4</v>
       </c>
       <c r="H24" s="22">
-        <v>14</v>
+        <v>14.28</v>
       </c>
       <c r="I24" s="22">
-        <v>16.3</v>
+        <v>18.3</v>
       </c>
       <c r="J24" s="23">
-        <v>12.7</v>
+        <v>11.96</v>
       </c>
       <c r="K24" s="22">
-        <v>21</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="L24" s="22">
-        <v>19.2</v>
+        <v>17.73</v>
       </c>
       <c r="M24" s="23">
-        <v>22.3</v>
+        <v>20.21</v>
       </c>
       <c r="N24" s="24">
-        <v>13142.6</v>
+        <v>13161.89</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -2504,7 +2501,7 @@
         <v>43</v>
       </c>
       <c r="N25" s="24">
-        <v>34393</v>
+        <v>31224.55</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2548,7 +2545,7 @@
         <v>43</v>
       </c>
       <c r="N26" s="24">
-        <v>3565.54</v>
+        <v>4346.3900000000003</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2574,25 +2571,25 @@
         <v>43</v>
       </c>
       <c r="H27" s="22">
-        <v>19.399999999999999</v>
+        <v>20.55</v>
       </c>
       <c r="I27" s="22">
-        <v>19.7</v>
+        <v>18.73</v>
       </c>
       <c r="J27" s="23">
-        <v>19.2</v>
+        <v>22.1</v>
       </c>
       <c r="K27" s="22">
-        <v>21.6</v>
+        <v>26.55</v>
       </c>
       <c r="L27" s="22">
-        <v>20.7</v>
+        <v>24.78</v>
       </c>
       <c r="M27" s="23">
-        <v>22.4</v>
+        <v>28.09</v>
       </c>
       <c r="N27" s="24">
-        <v>5096.26</v>
+        <v>4934.04</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2618,25 +2615,25 @@
         <v>47.5</v>
       </c>
       <c r="H28" s="22">
-        <v>26.4</v>
+        <v>28.56</v>
       </c>
       <c r="I28" s="22">
-        <v>26.8</v>
+        <v>27.52</v>
       </c>
       <c r="J28" s="23">
-        <v>26</v>
+        <v>29.57</v>
       </c>
       <c r="K28" s="22">
-        <v>34.6</v>
+        <v>33.43</v>
       </c>
       <c r="L28" s="22">
-        <v>33</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="M28" s="23">
-        <v>36.1</v>
+        <v>34.64</v>
       </c>
       <c r="N28" s="24">
-        <v>9974.42</v>
+        <v>10665.65</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2646,41 +2643,41 @@
       <c r="B29" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="21">
-        <v>80.7</v>
-      </c>
-      <c r="D29" s="22">
-        <v>92.4</v>
-      </c>
-      <c r="E29" s="22">
-        <v>98.2</v>
-      </c>
-      <c r="F29" s="22">
-        <v>42.6</v>
-      </c>
-      <c r="G29" s="23">
-        <v>49.4</v>
+      <c r="C29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="H29" s="22">
-        <v>73.900000000000006</v>
+        <v>74.5</v>
       </c>
       <c r="I29" s="22">
-        <v>75.2</v>
+        <v>75.78</v>
       </c>
       <c r="J29" s="23">
-        <v>72.599999999999994</v>
+        <v>73.28</v>
       </c>
       <c r="K29" s="22">
-        <v>77.7</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="L29" s="22">
-        <v>77.900000000000006</v>
+        <v>78.05</v>
       </c>
       <c r="M29" s="23">
-        <v>77.599999999999994</v>
+        <v>77.87</v>
       </c>
       <c r="N29" s="24">
-        <v>3072.52</v>
+        <v>2880.32</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2705,26 +2702,26 @@
       <c r="G30" s="23">
         <v>44.6</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>43</v>
+      <c r="H30" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="I30" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="J30" s="23">
+        <v>0.04</v>
       </c>
       <c r="K30" s="22">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="L30" s="22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M30" s="23">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="N30" s="24">
-        <v>44531.42</v>
+        <v>43144.23</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2750,25 +2747,25 @@
         <v>50.8</v>
       </c>
       <c r="H31" s="22">
-        <v>44.6</v>
+        <v>43.06</v>
       </c>
       <c r="I31" s="22">
-        <v>45.1</v>
+        <v>50</v>
       </c>
       <c r="J31" s="23">
-        <v>44</v>
+        <v>37.32</v>
       </c>
       <c r="K31" s="22">
-        <v>49.2</v>
+        <v>51.12</v>
       </c>
       <c r="L31" s="22">
-        <v>48.1</v>
+        <v>49.74</v>
       </c>
       <c r="M31" s="23">
-        <v>50.2</v>
+        <v>52.34</v>
       </c>
       <c r="N31" s="24">
-        <v>4284.18</v>
+        <v>6876.57</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2822,41 +2819,41 @@
       <c r="B33" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="21">
-        <v>70.7</v>
-      </c>
-      <c r="D33" s="22">
-        <v>90.2</v>
-      </c>
-      <c r="E33" s="22">
-        <v>98.6</v>
-      </c>
-      <c r="F33" s="22">
-        <v>36.799999999999997</v>
+      <c r="C33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>43</v>
+      <c r="H33" s="22">
+        <v>58.81</v>
+      </c>
+      <c r="I33" s="22">
+        <v>67.94</v>
+      </c>
+      <c r="J33" s="23">
+        <v>55.07</v>
+      </c>
+      <c r="K33" s="22">
+        <v>65.95</v>
+      </c>
+      <c r="L33" s="22">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="M33" s="23">
+        <v>66.89</v>
       </c>
       <c r="N33" s="24">
-        <v>5693.55</v>
+        <v>7738.36</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -2900,7 +2897,7 @@
         <v>43</v>
       </c>
       <c r="N34" s="19">
-        <v>4101.74</v>
+        <v>7081.2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -2926,25 +2923,25 @@
         <v>42.4</v>
       </c>
       <c r="H35" s="22">
-        <v>9.8000000000000007</v>
+        <v>12.39</v>
       </c>
       <c r="I35" s="22">
-        <v>5.8</v>
+        <v>10.83</v>
       </c>
       <c r="J35" s="23">
-        <v>11.2</v>
+        <v>12.94</v>
       </c>
       <c r="K35" s="22">
-        <v>5.7</v>
+        <v>10.97</v>
       </c>
       <c r="L35" s="22">
-        <v>5.3</v>
+        <v>11.33</v>
       </c>
       <c r="M35" s="23">
-        <v>5.8</v>
+        <v>10.82</v>
       </c>
       <c r="N35" s="24">
-        <v>17455.96</v>
+        <v>16951.28</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -2970,25 +2967,25 @@
         <v>48.1</v>
       </c>
       <c r="H36" s="22">
-        <v>48.8</v>
+        <v>48.87</v>
       </c>
       <c r="I36" s="22">
-        <v>51.2</v>
+        <v>50.86</v>
       </c>
       <c r="J36" s="23">
-        <v>46.7</v>
+        <v>46.96</v>
       </c>
       <c r="K36" s="22">
-        <v>47.1</v>
+        <v>46.92</v>
       </c>
       <c r="L36" s="22">
-        <v>48.3</v>
+        <v>48.12</v>
       </c>
       <c r="M36" s="23">
-        <v>45.9</v>
+        <v>45.78</v>
       </c>
       <c r="N36" s="24">
-        <v>5597.76</v>
+        <v>5800.68</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3014,25 +3011,25 @@
         <v>49.5</v>
       </c>
       <c r="H37" s="22">
-        <v>34.299999999999997</v>
+        <v>35.39</v>
       </c>
       <c r="I37" s="22">
-        <v>36.4</v>
+        <v>37.83</v>
       </c>
       <c r="J37" s="23">
-        <v>32.299999999999997</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="K37" s="22">
-        <v>35.5</v>
+        <v>38.04</v>
       </c>
       <c r="L37" s="22">
-        <v>36.5</v>
+        <v>39.19</v>
       </c>
       <c r="M37" s="23">
-        <v>34.5</v>
+        <v>36.93</v>
       </c>
       <c r="N37" s="24">
-        <v>6209.5</v>
+        <v>5965.82</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3043,40 +3040,40 @@
         <v>85</v>
       </c>
       <c r="C38" s="27">
-        <v>35.984615384615402</v>
+        <v>28.763636363636401</v>
       </c>
       <c r="D38" s="28">
-        <v>57.992307692307698</v>
+        <v>51.936363636363701</v>
       </c>
       <c r="E38" s="28">
-        <v>76.853846153846206</v>
+        <v>72.936363636363694</v>
       </c>
       <c r="F38" s="28">
-        <v>39.707692307692298</v>
+        <v>39.709090909090897</v>
       </c>
       <c r="G38" s="29">
-        <v>46.5818181818182</v>
+        <v>46.3</v>
       </c>
       <c r="H38" s="28">
-        <v>33.9</v>
+        <v>33.645000000000003</v>
       </c>
       <c r="I38" s="28">
-        <v>34.5625</v>
+        <v>35.783000000000001</v>
       </c>
       <c r="J38" s="29">
-        <v>33.087499999999999</v>
+        <v>32.225999999999999</v>
       </c>
       <c r="K38" s="28">
-        <v>32.5</v>
+        <v>37.017000000000003</v>
       </c>
       <c r="L38" s="28">
-        <v>32.122222222222199</v>
+        <v>36.542999999999999</v>
       </c>
       <c r="M38" s="29">
-        <v>32.766666666666701</v>
+        <v>37.363</v>
       </c>
       <c r="N38" s="30">
-        <v>7372.1049744757102</v>
+        <v>7594.4010599353096</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -3102,13 +3099,13 @@
         <v>43</v>
       </c>
       <c r="H39" s="33">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I39" s="33">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J39" s="34">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K39" s="33">
         <v>0.1</v>
@@ -3120,7 +3117,7 @@
         <v>0.1</v>
       </c>
       <c r="N39" s="35">
-        <v>44256.23</v>
+        <v>45241.16</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -3131,40 +3128,40 @@
         <v>89</v>
       </c>
       <c r="C40" s="21">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D40" s="22">
-        <v>22</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E40" s="22">
-        <v>72.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="F40" s="22">
-        <v>31.5</v>
+        <v>31.9</v>
       </c>
       <c r="G40" s="23">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="H40" s="22">
-        <v>2.2000000000000002</v>
+        <v>1.73</v>
       </c>
       <c r="I40" s="22">
-        <v>2.4</v>
+        <v>1.58</v>
       </c>
       <c r="J40" s="23">
-        <v>2.2000000000000002</v>
+        <v>1.75</v>
       </c>
       <c r="K40" s="22">
-        <v>2.7</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="L40" s="22">
-        <v>2.8</v>
+        <v>1.99</v>
       </c>
       <c r="M40" s="23">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="N40" s="24">
-        <v>48312.39</v>
+        <v>44521.120000000003</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -3208,7 +3205,7 @@
         <v>43</v>
       </c>
       <c r="N41" s="35">
-        <v>37820.17</v>
+        <v>60693</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -3234,25 +3231,25 @@
         <v>40.200000000000003</v>
       </c>
       <c r="H42" s="33">
-        <v>3</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I42" s="33">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J42" s="34">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="K42" s="33">
-        <v>4.5</v>
+        <v>3.89</v>
       </c>
       <c r="L42" s="33">
-        <v>4.2</v>
+        <v>3.24</v>
       </c>
       <c r="M42" s="34">
-        <v>4.5999999999999996</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="N42" s="35">
-        <v>20818.55</v>
+        <v>25622.43</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -3278,25 +3275,25 @@
         <v>47</v>
       </c>
       <c r="H43" s="22">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I43" s="22">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="J43" s="23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="K43" s="22">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="L43" s="22">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="M43" s="23">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="N43" s="24">
-        <v>25115.37</v>
+        <v>25119.71</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3322,25 +3319,25 @@
         <v>40.9</v>
       </c>
       <c r="H44" s="22">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I44" s="22">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="J44" s="23">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="K44" s="22">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="L44" s="22">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M44" s="23">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="N44" s="24">
-        <v>33491.49</v>
+        <v>35844.04</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3351,40 +3348,40 @@
         <v>98</v>
       </c>
       <c r="C45" s="27">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="D45" s="28">
-        <v>15.05</v>
+        <v>13.95</v>
       </c>
       <c r="E45" s="28">
-        <v>49.85</v>
+        <v>48.9</v>
       </c>
       <c r="F45" s="28">
-        <v>34.1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G45" s="29">
-        <v>42.274999999999999</v>
+        <v>42.35</v>
       </c>
       <c r="H45" s="28">
-        <v>1.1200000000000001</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I45" s="28">
-        <v>1.32</v>
+        <v>1.034</v>
       </c>
       <c r="J45" s="29">
-        <v>1.06</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="K45" s="28">
-        <v>1.5</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="L45" s="28">
-        <v>1.48</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="M45" s="29">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="N45" s="30">
-        <v>41669.756082201398</v>
+        <v>40901.421724822001</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -3410,25 +3407,25 @@
         <v>45.4</v>
       </c>
       <c r="H46" s="22">
-        <v>38.200000000000003</v>
+        <v>15.62</v>
       </c>
       <c r="I46" s="22">
-        <v>28.9</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="J46" s="23">
-        <v>47.3</v>
+        <v>20.76</v>
       </c>
       <c r="K46" s="22">
-        <v>43.8</v>
+        <v>19.32</v>
       </c>
       <c r="L46" s="22">
-        <v>36.1</v>
+        <v>13.67</v>
       </c>
       <c r="M46" s="23">
-        <v>53.1</v>
+        <v>25.18</v>
       </c>
       <c r="N46" s="24">
-        <v>8211.08</v>
+        <v>9111.9599999999991</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3454,25 +3451,25 @@
         <v>54.3</v>
       </c>
       <c r="H47" s="22">
-        <v>29.9</v>
+        <v>29.71</v>
       </c>
       <c r="I47" s="22">
-        <v>32.5</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="J47" s="23">
-        <v>27.7</v>
+        <v>26.25</v>
       </c>
       <c r="K47" s="22">
-        <v>33.299999999999997</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="L47" s="22">
-        <v>30.3</v>
+        <v>31.82</v>
       </c>
       <c r="M47" s="23">
-        <v>35.4</v>
+        <v>38.43</v>
       </c>
       <c r="N47" s="24">
-        <v>6302.4</v>
+        <v>6128.94</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -3498,25 +3495,25 @@
         <v>48.7</v>
       </c>
       <c r="H48" s="33">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="I48" s="33">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="J48" s="34">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="K48" s="33">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="L48" s="33">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M48" s="34">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="N48" s="35">
-        <v>18729.830000000002</v>
+        <v>17122.32</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -3542,25 +3539,25 @@
         <v>44.7</v>
       </c>
       <c r="H49" s="22">
-        <v>20.9</v>
+        <v>10.18</v>
       </c>
       <c r="I49" s="22">
-        <v>23</v>
+        <v>11.23</v>
       </c>
       <c r="J49" s="23">
-        <v>19.399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K49" s="22">
-        <v>26.4</v>
+        <v>12.47</v>
       </c>
       <c r="L49" s="22">
-        <v>22.7</v>
+        <v>11.2</v>
       </c>
       <c r="M49" s="23">
-        <v>29.4</v>
+        <v>13.48</v>
       </c>
       <c r="N49" s="24">
-        <v>16540.91</v>
+        <v>14119.33</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3571,40 +3568,40 @@
         <v>108</v>
       </c>
       <c r="C50" s="21">
-        <v>13.4</v>
+        <v>17.2</v>
       </c>
       <c r="D50" s="22">
-        <v>44.6</v>
+        <v>47</v>
       </c>
       <c r="E50" s="22">
-        <v>81.2</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="F50" s="22">
-        <v>35.9</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="G50" s="23">
-        <v>43.6</v>
+        <v>45.7</v>
       </c>
       <c r="H50" s="22">
-        <v>6.9</v>
+        <v>7.55</v>
       </c>
       <c r="I50" s="22">
-        <v>7.4</v>
+        <v>7.99</v>
       </c>
       <c r="J50" s="23">
-        <v>6.5</v>
+        <v>7.15</v>
       </c>
       <c r="K50" s="22">
-        <v>9.1</v>
+        <v>10.94</v>
       </c>
       <c r="L50" s="22">
-        <v>8.6</v>
+        <v>10.42</v>
       </c>
       <c r="M50" s="23">
-        <v>9.4</v>
+        <v>11.49</v>
       </c>
       <c r="N50" s="24">
-        <v>7632.17</v>
+        <v>6368.22</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3615,10 +3612,10 @@
         <v>110</v>
       </c>
       <c r="C51" s="16">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="D51" s="17">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="E51" s="17">
         <v>78.5</v>
@@ -3630,25 +3627,25 @@
         <v>48.6</v>
       </c>
       <c r="H51" s="17">
-        <v>7.7</v>
+        <v>9.41</v>
       </c>
       <c r="I51" s="17">
-        <v>8.1999999999999993</v>
+        <v>10.16</v>
       </c>
       <c r="J51" s="18">
-        <v>7.3</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="K51" s="17">
-        <v>10.9</v>
+        <v>13.14</v>
       </c>
       <c r="L51" s="17">
-        <v>9.9</v>
+        <v>11.85</v>
       </c>
       <c r="M51" s="18">
-        <v>11.7</v>
+        <v>14.29</v>
       </c>
       <c r="N51" s="19">
-        <v>12935.89</v>
+        <v>12816.27</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3674,25 +3671,25 @@
         <v>38.200000000000003</v>
       </c>
       <c r="H52" s="22">
-        <v>25.1</v>
+        <v>26.31</v>
       </c>
       <c r="I52" s="22">
-        <v>26.4</v>
+        <v>29.26</v>
       </c>
       <c r="J52" s="23">
-        <v>23.6</v>
+        <v>24.24</v>
       </c>
       <c r="K52" s="22">
-        <v>33</v>
+        <v>34.39</v>
       </c>
       <c r="L52" s="22">
-        <v>28.7</v>
+        <v>30.65</v>
       </c>
       <c r="M52" s="23">
-        <v>38.4</v>
+        <v>37.979999999999997</v>
       </c>
       <c r="N52" s="24">
-        <v>8095.72</v>
+        <v>9131.1200000000008</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3718,25 +3715,25 @@
         <v>43</v>
       </c>
       <c r="H53" s="22">
-        <v>59.3</v>
+        <v>22.24</v>
       </c>
       <c r="I53" s="22">
-        <v>60.9</v>
+        <v>24.42</v>
       </c>
       <c r="J53" s="23">
-        <v>57.8</v>
+        <v>20.43</v>
       </c>
       <c r="K53" s="22">
-        <v>63</v>
+        <v>29.04</v>
       </c>
       <c r="L53" s="22">
-        <v>62.4</v>
+        <v>26.93</v>
       </c>
       <c r="M53" s="23">
-        <v>63.5</v>
+        <v>30.66</v>
       </c>
       <c r="N53" s="24">
-        <v>4832.24</v>
+        <v>5948.79</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3762,25 +3759,25 @@
         <v>42.8</v>
       </c>
       <c r="H54" s="22">
-        <v>48</v>
+        <v>48.7</v>
       </c>
       <c r="I54" s="22">
-        <v>50.2</v>
+        <v>50.48</v>
       </c>
       <c r="J54" s="23">
-        <v>46.1</v>
+        <v>47.04</v>
       </c>
       <c r="K54" s="22">
-        <v>54.6</v>
+        <v>56</v>
       </c>
       <c r="L54" s="22">
-        <v>54</v>
+        <v>55.58</v>
       </c>
       <c r="M54" s="23">
-        <v>55.2</v>
+        <v>56.39</v>
       </c>
       <c r="N54" s="24">
-        <v>3196.5</v>
+        <v>3237.04</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -3806,25 +3803,25 @@
         <v>43.9</v>
       </c>
       <c r="H55" s="22">
-        <v>42</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="I55" s="22">
-        <v>45.1</v>
+        <v>18.87</v>
       </c>
       <c r="J55" s="23">
-        <v>39.799999999999997</v>
+        <v>18.37</v>
       </c>
       <c r="K55" s="22">
-        <v>46.1</v>
+        <v>24.62</v>
       </c>
       <c r="L55" s="22">
-        <v>45.3</v>
+        <v>21.84</v>
       </c>
       <c r="M55" s="23">
-        <v>46.7</v>
+        <v>26.89</v>
       </c>
       <c r="N55" s="24">
-        <v>6625.36</v>
+        <v>6373.93</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -3850,25 +3847,25 @@
         <v>45.7</v>
       </c>
       <c r="H56" s="22">
-        <v>37.5</v>
+        <v>39.44</v>
       </c>
       <c r="I56" s="22">
-        <v>37.299999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J56" s="23">
-        <v>37.700000000000003</v>
+        <v>41.34</v>
       </c>
       <c r="K56" s="22">
-        <v>40.5</v>
+        <v>45.71</v>
       </c>
       <c r="L56" s="22">
-        <v>39.200000000000003</v>
+        <v>41.61</v>
       </c>
       <c r="M56" s="23">
-        <v>41.4</v>
+        <v>48.58</v>
       </c>
       <c r="N56" s="24">
-        <v>3287.53</v>
+        <v>3293.61</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3894,25 +3891,25 @@
         <v>42.4</v>
       </c>
       <c r="H57" s="33">
-        <v>32.4</v>
+        <v>33.08</v>
       </c>
       <c r="I57" s="33">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="J57" s="34">
-        <v>33.299999999999997</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="K57" s="33">
-        <v>44.3</v>
+        <v>41.83</v>
       </c>
       <c r="L57" s="33">
-        <v>38.6</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="M57" s="34">
-        <v>49.3</v>
+        <v>46.78</v>
       </c>
       <c r="N57" s="35">
-        <v>18030.7</v>
+        <v>15710.11</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -3938,25 +3935,25 @@
         <v>45.8</v>
       </c>
       <c r="H58" s="22">
-        <v>28.9</v>
+        <v>8.73</v>
       </c>
       <c r="I58" s="22">
-        <v>31.8</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="J58" s="23">
-        <v>26.9</v>
+        <v>8.58</v>
       </c>
       <c r="K58" s="22">
-        <v>38.4</v>
+        <v>13.86</v>
       </c>
       <c r="L58" s="22">
-        <v>40.799999999999997</v>
+        <v>14.28</v>
       </c>
       <c r="M58" s="23">
-        <v>36.9</v>
+        <v>13.67</v>
       </c>
       <c r="N58" s="24">
-        <v>13464.42</v>
+        <v>12051.6</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -3982,25 +3979,25 @@
         <v>44.2</v>
       </c>
       <c r="H59" s="22">
-        <v>41.2</v>
+        <v>41.75</v>
       </c>
       <c r="I59" s="22">
-        <v>44.9</v>
+        <v>50.13</v>
       </c>
       <c r="J59" s="23">
-        <v>37.299999999999997</v>
+        <v>33.83</v>
       </c>
       <c r="K59" s="22">
-        <v>52.3</v>
+        <v>53.89</v>
       </c>
       <c r="L59" s="22">
-        <v>53.3</v>
+        <v>56.73</v>
       </c>
       <c r="M59" s="23">
-        <v>50.7</v>
+        <v>50.72</v>
       </c>
       <c r="N59" s="24">
-        <v>5200.12</v>
+        <v>5125.5600000000004</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4026,25 +4023,25 @@
         <v>48.9</v>
       </c>
       <c r="H60" s="17">
-        <v>34.299999999999997</v>
+        <v>14.04</v>
       </c>
       <c r="I60" s="17">
-        <v>34.1</v>
+        <v>13.89</v>
       </c>
       <c r="J60" s="18">
-        <v>34.5</v>
+        <v>14.18</v>
       </c>
       <c r="K60" s="17">
-        <v>40.5</v>
+        <v>19.47</v>
       </c>
       <c r="L60" s="17">
-        <v>36.4</v>
+        <v>16.75</v>
       </c>
       <c r="M60" s="18">
-        <v>46.1</v>
+        <v>23.09</v>
       </c>
       <c r="N60" s="19">
-        <v>6447</v>
+        <v>6316.73</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4053,40 +4050,40 @@
         <v>129</v>
       </c>
       <c r="C61" s="27">
-        <v>21.866666666666699</v>
+        <v>22.113333333333301</v>
       </c>
       <c r="D61" s="28">
-        <v>52</v>
+        <v>52.1533333333333</v>
       </c>
       <c r="E61" s="28">
-        <v>81.866666666666703</v>
+        <v>81.826666666666696</v>
       </c>
       <c r="F61" s="28">
-        <v>37.9</v>
+        <v>38.093333333333298</v>
       </c>
       <c r="G61" s="29">
-        <v>45.3466666666667</v>
+        <v>45.4866666666667</v>
       </c>
       <c r="H61" s="28">
-        <v>30.2</v>
+        <v>21.7306666666667</v>
       </c>
       <c r="I61" s="28">
-        <v>30.8466666666667</v>
+        <v>22.4933333333333</v>
       </c>
       <c r="J61" s="29">
-        <v>29.726666666666699</v>
+        <v>21.0246666666667</v>
       </c>
       <c r="K61" s="28">
-        <v>35.826666666666704</v>
+        <v>27.418666666666699</v>
       </c>
       <c r="L61" s="28">
-        <v>33.813333333333297</v>
+        <v>25.341333333333299</v>
       </c>
       <c r="M61" s="29">
-        <v>37.9</v>
+        <v>29.246666666666702</v>
       </c>
       <c r="N61" s="30">
-        <v>13770.722119922801</v>
+        <v>12376.478199926099</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4095,40 +4092,40 @@
         <v>130</v>
       </c>
       <c r="C62" s="39">
-        <v>29.225000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="D62" s="40">
-        <v>52.585416666666703</v>
+        <v>50.037777777777798</v>
       </c>
       <c r="E62" s="40">
-        <v>76.7</v>
+        <v>75.177777777777806</v>
       </c>
       <c r="F62" s="40">
-        <v>41.472916666666698</v>
+        <v>41.6111111111111</v>
       </c>
       <c r="G62" s="41">
-        <v>48.254347826086999</v>
+        <v>48.279545454545499</v>
       </c>
       <c r="H62" s="40">
-        <v>30.642222222222198</v>
+        <v>27.8593617021277</v>
       </c>
       <c r="I62" s="40">
-        <v>31.593333333333302</v>
+        <v>29.337234042553199</v>
       </c>
       <c r="J62" s="41">
-        <v>29.7844444444444</v>
+        <v>26.616170212766001</v>
       </c>
       <c r="K62" s="40">
-        <v>33.586956521739097</v>
+        <v>31.707659574468099</v>
       </c>
       <c r="L62" s="40">
-        <v>32.752173913043499</v>
+        <v>30.7374468085107</v>
       </c>
       <c r="M62" s="41">
-        <v>34.382608695652202</v>
+        <v>32.482978723404301</v>
       </c>
       <c r="N62" s="42">
-        <v>16264.772021176601</v>
+        <v>15701.8107422414</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4137,40 +4134,40 @@
         <v>131</v>
       </c>
       <c r="C63" s="44">
-        <v>2.76767676767677</v>
+        <v>2.34</v>
       </c>
       <c r="D63" s="45">
-        <v>9.5595959595959599</v>
+        <v>8.63263157894737</v>
       </c>
       <c r="E63" s="45">
-        <v>24.844444444444498</v>
+        <v>23.06</v>
       </c>
       <c r="F63" s="45">
-        <v>35.233333333333398</v>
+        <v>34.991578947368403</v>
       </c>
       <c r="G63" s="46">
-        <v>42.785858585858598</v>
+        <v>42.587368421052602</v>
       </c>
       <c r="H63" s="45">
-        <v>4.9758064516129004</v>
+        <v>5.2185074626865697</v>
       </c>
       <c r="I63" s="45">
-        <v>4.8409836065573799</v>
+        <v>5.23179104477612</v>
       </c>
       <c r="J63" s="46">
-        <v>4.9428571428571404</v>
+        <v>5.2265671641791096</v>
       </c>
       <c r="K63" s="45">
-        <v>5.26825396825397</v>
+        <v>5.8760294117647103</v>
       </c>
       <c r="L63" s="45">
-        <v>5.0225806451612902</v>
+        <v>5.67507462686567</v>
       </c>
       <c r="M63" s="46">
-        <v>5.40967741935484</v>
+        <v>5.9973529411764703</v>
       </c>
       <c r="N63" s="47">
-        <v>41106.002209695398</v>
+        <v>41554.734497034602</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -4179,40 +4176,40 @@
         <v>132</v>
       </c>
       <c r="C64" s="39">
-        <v>5.26842105263158</v>
+        <v>3.5833333333333299</v>
       </c>
       <c r="D64" s="40">
-        <v>12.821052631579001</v>
+        <v>9.56666666666667</v>
       </c>
       <c r="E64" s="40">
-        <v>30.731578947368401</v>
+        <v>26.55</v>
       </c>
       <c r="F64" s="40">
-        <v>45.6105263157895</v>
+        <v>45.461111111111101</v>
       </c>
       <c r="G64" s="41">
-        <v>51.068421052631599</v>
+        <v>50.994444444444497</v>
       </c>
       <c r="H64" s="40">
-        <v>4.6173913043478301</v>
+        <v>4.6270833333333403</v>
       </c>
       <c r="I64" s="40">
-        <v>4.6521739130434803</v>
+        <v>4.5358333333333301</v>
       </c>
       <c r="J64" s="41">
-        <v>4.5173913043478304</v>
+        <v>4.6658333333333299</v>
       </c>
       <c r="K64" s="40">
-        <v>4.5869565217391299</v>
+        <v>5.4954166666666699</v>
       </c>
       <c r="L64" s="40">
-        <v>4.3913043478260896</v>
+        <v>4.7433333333333296</v>
       </c>
       <c r="M64" s="41">
-        <v>4.7954545454545503</v>
+        <v>5.8208333333333302</v>
       </c>
       <c r="N64" s="42">
-        <v>36306.907577732702</v>
+        <v>35913.204739297697</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -4221,40 +4218,40 @@
         <v>133</v>
       </c>
       <c r="C65" s="50">
-        <v>4.0285714285714302</v>
+        <v>5</v>
       </c>
       <c r="D65" s="51">
-        <v>19.961904761904801</v>
+        <v>21.885000000000002</v>
       </c>
       <c r="E65" s="51">
-        <v>50.733333333333299</v>
+        <v>52.04</v>
       </c>
       <c r="F65" s="51">
-        <v>34.995238095238101</v>
+        <v>35.174999999999997</v>
       </c>
       <c r="G65" s="52">
-        <v>43.1</v>
+        <v>43.255000000000003</v>
       </c>
       <c r="H65" s="51">
-        <v>5.6962962962962997</v>
+        <v>6.9944444444444498</v>
       </c>
       <c r="I65" s="51">
-        <v>5.4</v>
+        <v>6.9792592592592602</v>
       </c>
       <c r="J65" s="52">
-        <v>5.8629629629629703</v>
+        <v>7.0992592592592603</v>
       </c>
       <c r="K65" s="51">
-        <v>6.1592592592592599</v>
+        <v>7.4325925925925898</v>
       </c>
       <c r="L65" s="51">
-        <v>5.5925925925925899</v>
+        <v>7.3655555555555603</v>
       </c>
       <c r="M65" s="52">
-        <v>6.2629629629629697</v>
+        <v>7.4614814814814796</v>
       </c>
       <c r="N65" s="53">
-        <v>23773.1944224531</v>
+        <v>24563.037145957202</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4263,40 +4260,40 @@
         <v>134</v>
       </c>
       <c r="C66" s="55">
-        <v>11.4068027210884</v>
+        <v>10.047857142857101</v>
       </c>
       <c r="D66" s="56">
-        <v>23.608843537415002</v>
+        <v>21.941428571428599</v>
       </c>
       <c r="E66" s="56">
-        <v>41.776870748299302</v>
+        <v>39.812142857142803</v>
       </c>
       <c r="F66" s="56">
-        <v>37.270748299319699</v>
+        <v>37.119285714285702</v>
       </c>
       <c r="G66" s="57">
-        <v>44.520689655172397</v>
+        <v>44.389208633093503</v>
       </c>
       <c r="H66" s="56">
-        <v>15.770093457943901</v>
+        <v>14.5528947368421</v>
       </c>
       <c r="I66" s="56">
-        <v>16.198113207547198</v>
+        <v>15.17</v>
       </c>
       <c r="J66" s="57">
-        <v>15.2935185185185</v>
+        <v>14.0450877192982</v>
       </c>
       <c r="K66" s="56">
-        <v>17.2192660550459</v>
+        <v>16.433304347826098</v>
       </c>
       <c r="L66" s="56">
-        <v>16.8333333333333</v>
+        <v>16.0078070175439</v>
       </c>
       <c r="M66" s="57">
-        <v>17.75</v>
+        <v>16.8219130434783</v>
       </c>
       <c r="N66" s="58">
-        <v>36774.887281008698</v>
+        <v>37047.228903517898</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -4305,40 +4302,40 @@
         <v>135</v>
       </c>
       <c r="C67" s="60">
-        <v>36.863157894736901</v>
+        <v>29.893750000000001</v>
       </c>
       <c r="D67" s="61">
-        <v>56.884210526315798</v>
+        <v>50.381250000000001</v>
       </c>
       <c r="E67" s="61">
-        <v>76.089473684210603</v>
+        <v>71.731250000000003</v>
       </c>
       <c r="F67" s="61">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="G67" s="62">
-        <v>47.761111111111099</v>
+        <v>47.637500000000003</v>
       </c>
       <c r="H67" s="61">
-        <v>36.313333333333297</v>
+        <v>36.068235294117599</v>
       </c>
       <c r="I67" s="61">
-        <v>37.246666666666698</v>
+        <v>38.289411764705903</v>
       </c>
       <c r="J67" s="62">
-        <v>35.353333333333303</v>
+        <v>34.352352941176498</v>
       </c>
       <c r="K67" s="61">
-        <v>36.762500000000003</v>
+        <v>39.525882352941203</v>
       </c>
       <c r="L67" s="61">
-        <v>36.193750000000001</v>
+        <v>38.76</v>
       </c>
       <c r="M67" s="62">
-        <v>37.287500000000001</v>
+        <v>40.178235294117698</v>
       </c>
       <c r="N67" s="63">
-        <v>14899.255841959301</v>
+        <v>14613.154770957801</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -4347,40 +4344,40 @@
         <v>136</v>
       </c>
       <c r="C68" s="50">
-        <v>20.95</v>
+        <v>18.709523809523802</v>
       </c>
       <c r="D68" s="51">
-        <v>47.640909090909098</v>
+        <v>45.514285714285698</v>
       </c>
       <c r="E68" s="51">
-        <v>77.677272727272793</v>
+        <v>76.471428571428604</v>
       </c>
       <c r="F68" s="51">
-        <v>37.390909090909098</v>
+        <v>37.576190476190497</v>
       </c>
       <c r="G68" s="52">
-        <v>44.923809523809503</v>
+        <v>45.038095238095202</v>
       </c>
       <c r="H68" s="51">
-        <v>25.533333333333299</v>
+        <v>20.948181818181801</v>
       </c>
       <c r="I68" s="51">
-        <v>26.052380952381</v>
+        <v>21.982727272727299</v>
       </c>
       <c r="J68" s="52">
-        <v>25.133333333333301</v>
+        <v>20.243636363636401</v>
       </c>
       <c r="K68" s="51">
-        <v>29.866666666666699</v>
+        <v>25.320909090909101</v>
       </c>
       <c r="L68" s="51">
-        <v>28.290476190476198</v>
+        <v>23.640909090909101</v>
       </c>
       <c r="M68" s="52">
-        <v>31.447619047619099</v>
+        <v>26.7372727272727</v>
       </c>
       <c r="N68" s="53">
-        <v>20531.1555733598</v>
+        <v>19371.552405394701</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -4404,25 +4401,25 @@
         <v>48.44</v>
       </c>
       <c r="H69" s="51">
-        <v>46.42</v>
+        <v>46.804000000000002</v>
       </c>
       <c r="I69" s="51">
-        <v>47.72</v>
+        <v>49.1</v>
       </c>
       <c r="J69" s="52">
-        <v>45.18</v>
+        <v>44.752000000000002</v>
       </c>
       <c r="K69" s="51">
-        <v>49.18</v>
+        <v>49.957999999999998</v>
       </c>
       <c r="L69" s="51">
-        <v>48.88</v>
+        <v>49.671999999999997</v>
       </c>
       <c r="M69" s="52">
-        <v>49.5</v>
+        <v>50.287999999999997</v>
       </c>
       <c r="N69" s="53">
-        <v>6496.3127388213197</v>
+        <v>7027.5093388349296</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4431,40 +4428,40 @@
         <v>138</v>
       </c>
       <c r="C70" s="50">
-        <v>36.575000000000003</v>
+        <v>31.842857142857099</v>
       </c>
       <c r="D70" s="51">
-        <v>58.725000000000001</v>
+        <v>54.585714285714303</v>
       </c>
       <c r="E70" s="51">
-        <v>79.900000000000006</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="F70" s="51">
-        <v>42.3125</v>
+        <v>42.342857142857198</v>
       </c>
       <c r="G70" s="52">
-        <v>48.787500000000001</v>
+        <v>48.842857142857198</v>
       </c>
       <c r="H70" s="51">
-        <v>46.155555555555601</v>
+        <v>44.838888888888903</v>
       </c>
       <c r="I70" s="51">
-        <v>47.844444444444399</v>
+        <v>47.051111111111098</v>
       </c>
       <c r="J70" s="52">
-        <v>44.6666666666667</v>
+        <v>42.892222222222202</v>
       </c>
       <c r="K70" s="51">
-        <v>49.577777777777797</v>
+        <v>48.143333333333402</v>
       </c>
       <c r="L70" s="51">
-        <v>49.288888888888899</v>
+        <v>47.696666666666701</v>
       </c>
       <c r="M70" s="52">
-        <v>49.922222222222203</v>
+        <v>48.606666666666698</v>
       </c>
       <c r="N70" s="53">
-        <v>7380.7906412819702</v>
+        <v>7468.4761941693596</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -4473,40 +4470,40 @@
         <v>139</v>
       </c>
       <c r="C71" s="50">
-        <v>21.866666666666699</v>
+        <v>22.113333333333301</v>
       </c>
       <c r="D71" s="51">
-        <v>52</v>
+        <v>52.1533333333333</v>
       </c>
       <c r="E71" s="51">
-        <v>81.866666666666703</v>
+        <v>81.826666666666696</v>
       </c>
       <c r="F71" s="51">
-        <v>37.9</v>
+        <v>38.093333333333298</v>
       </c>
       <c r="G71" s="52">
-        <v>45.3466666666667</v>
+        <v>45.4866666666667</v>
       </c>
       <c r="H71" s="51">
-        <v>30.2</v>
+        <v>21.7306666666667</v>
       </c>
       <c r="I71" s="51">
-        <v>30.8466666666667</v>
+        <v>22.4933333333333</v>
       </c>
       <c r="J71" s="52">
-        <v>29.726666666666699</v>
+        <v>21.0246666666667</v>
       </c>
       <c r="K71" s="51">
-        <v>35.826666666666704</v>
+        <v>27.418666666666699</v>
       </c>
       <c r="L71" s="51">
-        <v>33.813333333333297</v>
+        <v>25.341333333333299</v>
       </c>
       <c r="M71" s="52">
-        <v>37.9</v>
+        <v>29.246666666666702</v>
       </c>
       <c r="N71" s="53">
-        <v>13770.722119922801</v>
+        <v>12376.478199926099</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -4515,40 +4512,40 @@
         <v>140</v>
       </c>
       <c r="C72" s="50">
-        <v>38.714285714285701</v>
+        <v>33.383333333333297</v>
       </c>
       <c r="D72" s="51">
-        <v>66.671428571428606</v>
+        <v>62.75</v>
       </c>
       <c r="E72" s="51">
-        <v>89.657142857142901</v>
+        <v>88.1666666666667</v>
       </c>
       <c r="F72" s="51">
-        <v>39.314285714285703</v>
+        <v>39.733333333333299</v>
       </c>
       <c r="G72" s="52">
         <v>46</v>
       </c>
       <c r="H72" s="51">
-        <v>22.475000000000001</v>
+        <v>31.14</v>
       </c>
       <c r="I72" s="51">
-        <v>22.175000000000001</v>
+        <v>32.57</v>
       </c>
       <c r="J72" s="52">
-        <v>22.175000000000001</v>
+        <v>30.54</v>
       </c>
       <c r="K72" s="51">
-        <v>24.35</v>
+        <v>34.988</v>
       </c>
       <c r="L72" s="51">
-        <v>23.875</v>
+        <v>34.347999999999999</v>
       </c>
       <c r="M72" s="52">
-        <v>24.7</v>
+        <v>35.473999999999997</v>
       </c>
       <c r="N72" s="53">
-        <v>8126.2454661021102</v>
+        <v>8293.2958934158705</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -4557,40 +4554,40 @@
         <v>141</v>
       </c>
       <c r="C73" s="50">
-        <v>37.59375</v>
+        <v>32.221428571428604</v>
       </c>
       <c r="D73" s="51">
-        <v>55.5</v>
+        <v>50.564285714285703</v>
       </c>
       <c r="E73" s="51">
-        <v>72.674999999999997</v>
+        <v>69.085714285714303</v>
       </c>
       <c r="F73" s="51">
-        <v>47.84375</v>
+        <v>48.628571428571398</v>
       </c>
       <c r="G73" s="52">
-        <v>53.381250000000001</v>
+        <v>54.021428571428601</v>
       </c>
       <c r="H73" s="51">
-        <v>37.857142857142897</v>
+        <v>35.534666666666702</v>
       </c>
       <c r="I73" s="51">
-        <v>39.35</v>
+        <v>37.7113333333333</v>
       </c>
       <c r="J73" s="52">
-        <v>36.478571428571399</v>
+        <v>33.586666666666702</v>
       </c>
       <c r="K73" s="51">
-        <v>38.613333333333301</v>
+        <v>38.926000000000002</v>
       </c>
       <c r="L73" s="51">
-        <v>38.266666666666701</v>
+        <v>38.427999999999997</v>
       </c>
       <c r="M73" s="52">
-        <v>38.786666666666697</v>
+        <v>39.165333333333301</v>
       </c>
       <c r="N73" s="53">
-        <v>12679.6870933562</v>
+        <v>12328.0808674281</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -4614,25 +4611,25 @@
         <v>42.7</v>
       </c>
       <c r="H74" s="51">
-        <v>0.85</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="I74" s="51">
-        <v>1.05</v>
+        <v>0.89749999999999996</v>
       </c>
       <c r="J74" s="52">
-        <v>0.77500000000000002</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="K74" s="51">
-        <v>1.2</v>
+        <v>1.0674999999999999</v>
       </c>
       <c r="L74" s="51">
-        <v>1.1499999999999999</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="M74" s="52">
-        <v>1.2250000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N74" s="53">
-        <v>34769.620121358297</v>
+        <v>37141.405661158802</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4656,25 +4653,25 @@
         <v>50.94</v>
       </c>
       <c r="H75" s="56">
-        <v>41.575000000000003</v>
+        <v>31.947500000000002</v>
       </c>
       <c r="I75" s="56">
-        <v>43.15</v>
+        <v>33.752499999999998</v>
       </c>
       <c r="J75" s="57">
-        <v>39.924999999999997</v>
+        <v>30.1875</v>
       </c>
       <c r="K75" s="56">
-        <v>44.024999999999999</v>
+        <v>35.159999999999997</v>
       </c>
       <c r="L75" s="56">
-        <v>44.65</v>
+        <v>35.674999999999997</v>
       </c>
       <c r="M75" s="57">
-        <v>43.274999999999999</v>
+        <v>34.454999999999998</v>
       </c>
       <c r="N75" s="58">
-        <v>9921.3296238524508</v>
+        <v>9691.8441885813008</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -4683,40 +4680,40 @@
         <v>143</v>
       </c>
       <c r="C76" s="60">
-        <v>2.4</v>
+        <v>2.3285714285714301</v>
       </c>
       <c r="D76" s="61">
-        <v>14.171428571428599</v>
+        <v>13.842857142857101</v>
       </c>
       <c r="E76" s="61">
-        <v>41.842857142857099</v>
+        <v>41.271428571428601</v>
       </c>
       <c r="F76" s="61">
-        <v>37.357142857142897</v>
+        <v>37.314285714285703</v>
       </c>
       <c r="G76" s="62">
         <v>44.828571428571401</v>
       </c>
       <c r="H76" s="61">
-        <v>3.95714285714286</v>
+        <v>4.7171428571428597</v>
       </c>
       <c r="I76" s="61">
-        <v>4.3833333333333302</v>
+        <v>4.5314285714285703</v>
       </c>
       <c r="J76" s="62">
-        <v>4.0999999999999996</v>
+        <v>4.8628571428571403</v>
       </c>
       <c r="K76" s="61">
-        <v>5.2142857142857197</v>
+        <v>6.2128571428571497</v>
       </c>
       <c r="L76" s="61">
-        <v>4.8857142857142897</v>
+        <v>5.7342857142857202</v>
       </c>
       <c r="M76" s="62">
-        <v>5.4714285714285698</v>
+        <v>6.5957142857142896</v>
       </c>
       <c r="N76" s="63">
-        <v>24223.780479362798</v>
+        <v>24683.240917985</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -4725,40 +4722,40 @@
         <v>144</v>
       </c>
       <c r="C77" s="50">
-        <v>3.43333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="D77" s="51">
-        <v>8.4111111111111097</v>
+        <v>6.9888888888888898</v>
       </c>
       <c r="E77" s="51">
-        <v>23.2</v>
+        <v>21.588888888888899</v>
       </c>
       <c r="F77" s="51">
-        <v>45.411111111111097</v>
+        <v>44.655555555555601</v>
       </c>
       <c r="G77" s="52">
-        <v>50.866666666666703</v>
+        <v>50.322222222222202</v>
       </c>
       <c r="H77" s="51">
-        <v>5.1727272727272702</v>
+        <v>4.9649999999999999</v>
       </c>
       <c r="I77" s="51">
-        <v>5.4818181818181797</v>
+        <v>5.2908333333333397</v>
       </c>
       <c r="J77" s="52">
-        <v>4.9363636363636401</v>
+        <v>4.7516666666666696</v>
       </c>
       <c r="K77" s="51">
-        <v>5.2272727272727302</v>
+        <v>5.9458333333333302</v>
       </c>
       <c r="L77" s="51">
-        <v>5.5363636363636397</v>
+        <v>5.5691666666666704</v>
       </c>
       <c r="M77" s="52">
-        <v>5.5</v>
+        <v>6.0866666666666696</v>
       </c>
       <c r="N77" s="53">
-        <v>35664.678526220399</v>
+        <v>34943.826398239202</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4767,19 +4764,19 @@
         <v>144</v>
       </c>
       <c r="C78" s="50">
-        <v>0.38518518518519002</v>
+        <v>0.31111111111111001</v>
       </c>
       <c r="D78" s="51">
-        <v>0.73333333333332995</v>
+        <v>0.65925925925925999</v>
       </c>
       <c r="E78" s="51">
-        <v>1.7925925925925901</v>
+        <v>1.63703703703704</v>
       </c>
       <c r="F78" s="51">
-        <v>30.9444444444444</v>
+        <v>30.766666666666701</v>
       </c>
       <c r="G78" s="52">
-        <v>39.118518518518499</v>
+        <v>38.966666666666697</v>
       </c>
       <c r="H78" s="51" t="s">
         <v>43</v>
@@ -4800,7 +4797,7 @@
         <v>43</v>
       </c>
       <c r="N78" s="53">
-        <v>92657.418199927895</v>
+        <v>93593.148939456703</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4809,40 +4806,40 @@
         <v>145</v>
       </c>
       <c r="C79" s="55">
-        <v>0.73783783783783996</v>
+        <v>0.57297297297297001</v>
       </c>
       <c r="D79" s="56">
-        <v>1.55675675675676</v>
+        <v>1.3351351351351399</v>
       </c>
       <c r="E79" s="56">
-        <v>4.1864864864864897</v>
+        <v>3.8729729729729701</v>
       </c>
       <c r="F79" s="56">
-        <v>33.486486486486498</v>
+        <v>33.089189189189199</v>
       </c>
       <c r="G79" s="57">
-        <v>41.218918918918902</v>
+        <v>40.9</v>
       </c>
       <c r="H79" s="56">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
       <c r="I79" s="56">
-        <v>0.82</v>
+        <v>1.026</v>
       </c>
       <c r="J79" s="57">
-        <v>0.86</v>
+        <v>1.034</v>
       </c>
       <c r="K79" s="56">
-        <v>0.62</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="L79" s="56">
-        <v>0.7</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="M79" s="57">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="N79" s="58">
-        <v>93246.744495288804</v>
+        <v>92982.468606086099</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -4866,25 +4863,25 @@
         <v>46.0833333333333</v>
       </c>
       <c r="H80" s="61">
-        <v>22.412500000000001</v>
+        <v>21.258749999999999</v>
       </c>
       <c r="I80" s="61">
-        <v>23.387499999999999</v>
+        <v>22.0075</v>
       </c>
       <c r="J80" s="62">
-        <v>21.637499999999999</v>
+        <v>20.6</v>
       </c>
       <c r="K80" s="61">
-        <v>26.425000000000001</v>
+        <v>24.762499999999999</v>
       </c>
       <c r="L80" s="61">
-        <v>25.524999999999999</v>
+        <v>23.7575</v>
       </c>
       <c r="M80" s="62">
-        <v>27.1875</v>
+        <v>25.565000000000001</v>
       </c>
       <c r="N80" s="63">
-        <v>21553.936748379801</v>
+        <v>20629.127625003901</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -4893,40 +4890,40 @@
         <v>147</v>
       </c>
       <c r="C81" s="50">
-        <v>4.0222222222222204</v>
+        <v>6.1875</v>
       </c>
       <c r="D81" s="51">
-        <v>14.266666666666699</v>
+        <v>18.524999999999999</v>
       </c>
       <c r="E81" s="51">
-        <v>35.088888888888903</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="F81" s="51">
-        <v>33.955555555555598</v>
+        <v>34.325000000000003</v>
       </c>
       <c r="G81" s="52">
-        <v>42.1111111111111</v>
+        <v>42.4375</v>
       </c>
       <c r="H81" s="51">
-        <v>10.6076923076923</v>
+        <v>10.202142857142899</v>
       </c>
       <c r="I81" s="51">
-        <v>10.3153846153846</v>
+        <v>10.785714285714301</v>
       </c>
       <c r="J81" s="52">
-        <v>10.676923076923099</v>
+        <v>9.8207142857142902</v>
       </c>
       <c r="K81" s="51">
-        <v>11.092307692307701</v>
+        <v>10.9066666666667</v>
       </c>
       <c r="L81" s="51">
-        <v>10.2923076923077</v>
+        <v>11.2257142857143</v>
       </c>
       <c r="M81" s="52">
-        <v>11.307692307692299</v>
+        <v>11.034000000000001</v>
       </c>
       <c r="N81" s="53">
-        <v>47471.0246948036</v>
+        <v>49314.524719422399</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -4935,40 +4932,40 @@
         <v>148</v>
       </c>
       <c r="C82" s="50">
-        <v>30.8642857142857</v>
+        <v>27.638461538461499</v>
       </c>
       <c r="D82" s="51">
-        <v>54.511904761904802</v>
+        <v>51.720512820512802</v>
       </c>
       <c r="E82" s="51">
-        <v>77.964285714285694</v>
+        <v>76.305128205128199</v>
       </c>
       <c r="F82" s="51">
-        <v>41.757142857142902</v>
+        <v>41.938461538461503</v>
       </c>
       <c r="G82" s="52">
-        <v>48.58</v>
+        <v>48.626315789473701</v>
       </c>
       <c r="H82" s="51">
-        <v>32.421621621621597</v>
+        <v>29.213333333333299</v>
       </c>
       <c r="I82" s="51">
-        <v>33.367567567567598</v>
+        <v>30.840769230769201</v>
       </c>
       <c r="J82" s="52">
-        <v>31.545945945945899</v>
+        <v>27.850256410256399</v>
       </c>
       <c r="K82" s="51">
-        <v>35.094736842105299</v>
+        <v>33.132307692307698</v>
       </c>
       <c r="L82" s="51">
-        <v>34.273684210526298</v>
+        <v>32.169230769230801</v>
       </c>
       <c r="M82" s="52">
-        <v>35.897368421052697</v>
+        <v>33.902051282051303</v>
       </c>
       <c r="N82" s="53">
-        <v>14614.1397320858</v>
+        <v>14164.1032279643</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4977,40 +4974,40 @@
         <v>149</v>
       </c>
       <c r="C83" s="55">
-        <v>2.64222222222222</v>
+        <v>1.9862068965517199</v>
       </c>
       <c r="D83" s="56">
-        <v>9.0888888888888903</v>
+        <v>7.7229885057471304</v>
       </c>
       <c r="E83" s="56">
-        <v>23.82</v>
+        <v>21.780459770114899</v>
       </c>
       <c r="F83" s="56">
-        <v>35.3611111111111</v>
+        <v>35.052873563218398</v>
       </c>
       <c r="G83" s="57">
-        <v>42.853333333333303</v>
+        <v>42.601149425287403</v>
       </c>
       <c r="H83" s="56">
-        <v>3.4816326530612298</v>
+        <v>3.9020754716981099</v>
       </c>
       <c r="I83" s="56">
-        <v>3.3583333333333298</v>
+        <v>3.76471698113208</v>
       </c>
       <c r="J83" s="57">
-        <v>3.452</v>
+        <v>4.0130188679245302</v>
       </c>
       <c r="K83" s="56">
-        <v>3.754</v>
+        <v>4.4522641509433996</v>
       </c>
       <c r="L83" s="56">
-        <v>3.6244897959183699</v>
+        <v>4.2088679245282998</v>
       </c>
       <c r="M83" s="57">
-        <v>3.8448979591836698</v>
+        <v>4.5718867924528297</v>
       </c>
       <c r="N83" s="58">
-        <v>40571.804629074599</v>
+        <v>40903.478170348702</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -5019,40 +5016,40 @@
         <v>150</v>
       </c>
       <c r="C84" s="60">
-        <v>42.009523809523799</v>
+        <v>36.938888888888897</v>
       </c>
       <c r="D84" s="61">
-        <v>69.6666666666667</v>
+        <v>66.394444444444503</v>
       </c>
       <c r="E84" s="61">
-        <v>90.6</v>
+        <v>89.322222222222294</v>
       </c>
       <c r="F84" s="61">
-        <v>39.247619047619096</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="G84" s="62">
-        <v>46.594736842105299</v>
+        <v>46.447058823529403</v>
       </c>
       <c r="H84" s="61">
-        <v>43.854999999999997</v>
+        <v>40.979047619047599</v>
       </c>
       <c r="I84" s="61">
-        <v>45.265000000000001</v>
+        <v>43.098571428571397</v>
       </c>
       <c r="J84" s="62">
-        <v>42.445</v>
+        <v>39.216190476190498</v>
       </c>
       <c r="K84" s="61">
-        <v>47.29</v>
+        <v>45.576190476190497</v>
       </c>
       <c r="L84" s="61">
-        <v>46.594999999999999</v>
+        <v>44.633809523809497</v>
       </c>
       <c r="M84" s="62">
-        <v>47.975000000000001</v>
+        <v>46.334761904761898</v>
       </c>
       <c r="N84" s="63">
-        <v>5562.6400255460303</v>
+        <v>5643.48490588192</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -5076,25 +5073,25 @@
         <v>44.7</v>
       </c>
       <c r="H85" s="51">
-        <v>37.5</v>
+        <v>50.865000000000002</v>
       </c>
       <c r="I85" s="51">
-        <v>32.15</v>
+        <v>52.674999999999997</v>
       </c>
       <c r="J85" s="52">
-        <v>38.35</v>
+        <v>50.674999999999997</v>
       </c>
       <c r="K85" s="51">
-        <v>34.35</v>
+        <v>48.56</v>
       </c>
       <c r="L85" s="51">
-        <v>27.5</v>
+        <v>46.7</v>
       </c>
       <c r="M85" s="52">
-        <v>35.049999999999997</v>
+        <v>48.765000000000001</v>
       </c>
       <c r="N85" s="53">
-        <v>8026.1429101475596</v>
+        <v>9642.3678847710307</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -5103,40 +5100,40 @@
         <v>152</v>
       </c>
       <c r="C86" s="50">
-        <v>22.1904761904762</v>
+        <v>22.1380952380952</v>
       </c>
       <c r="D86" s="51">
-        <v>44.7</v>
+        <v>44.485714285714302</v>
       </c>
       <c r="E86" s="51">
-        <v>73.580952380952397</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F86" s="51">
-        <v>42.104761904761901</v>
+        <v>42.123809523809499</v>
       </c>
       <c r="G86" s="52">
-        <v>48.376190476190501</v>
+        <v>48.3904761904762</v>
       </c>
       <c r="H86" s="51">
-        <v>22.552380952381</v>
+        <v>20.026666666666699</v>
       </c>
       <c r="I86" s="51">
-        <v>23.133333333333301</v>
+        <v>20.9604761904762</v>
       </c>
       <c r="J86" s="52">
-        <v>22.1619047619048</v>
+        <v>19.220952380952401</v>
       </c>
       <c r="K86" s="51">
-        <v>26.704761904761899</v>
+        <v>23.453333333333301</v>
       </c>
       <c r="L86" s="51">
-        <v>25.504761904761899</v>
+        <v>22.191428571428599</v>
       </c>
       <c r="M86" s="52">
-        <v>27.828571428571401</v>
+        <v>24.463809523809498</v>
       </c>
       <c r="N86" s="53">
-        <v>21612.872662619098</v>
+        <v>20468.190740382201</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5145,40 +5142,40 @@
         <v>153</v>
       </c>
       <c r="C87" s="50">
-        <v>6.5538461538461501</v>
+        <v>5.4666666666666703</v>
       </c>
       <c r="D87" s="51">
-        <v>24.4884615384615</v>
+        <v>22.508333333333301</v>
       </c>
       <c r="E87" s="51">
-        <v>57.330769230769199</v>
+        <v>54.858333333333299</v>
       </c>
       <c r="F87" s="51">
-        <v>36.330769230769199</v>
+        <v>35.908333333333303</v>
       </c>
       <c r="G87" s="52">
-        <v>44.0115384615385</v>
+        <v>43.6666666666667</v>
       </c>
       <c r="H87" s="51">
-        <v>6.2037037037036997</v>
+        <v>6.6074074074074103</v>
       </c>
       <c r="I87" s="51">
-        <v>5.9777777777777796</v>
+        <v>6.3622222222222202</v>
       </c>
       <c r="J87" s="52">
-        <v>6.3407407407407401</v>
+        <v>6.7285185185185199</v>
       </c>
       <c r="K87" s="51">
-        <v>7.1629629629629701</v>
+        <v>8.07</v>
       </c>
       <c r="L87" s="51">
-        <v>6.8481481481481499</v>
+        <v>7.69</v>
       </c>
       <c r="M87" s="52">
-        <v>7.3</v>
+        <v>8.2822222222222202</v>
       </c>
       <c r="N87" s="53">
-        <v>19908.5377198979</v>
+        <v>20134.482286776201</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -5202,25 +5199,25 @@
         <v>55.88</v>
       </c>
       <c r="H88" s="51">
-        <v>7.05</v>
+        <v>5.6539999999999999</v>
       </c>
       <c r="I88" s="51">
-        <v>7.65</v>
+        <v>6.7220000000000004</v>
       </c>
       <c r="J88" s="52">
-        <v>6.5</v>
+        <v>4.7560000000000002</v>
       </c>
       <c r="K88" s="51">
-        <v>7.68</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="L88" s="51">
-        <v>7.82</v>
+        <v>8.266</v>
       </c>
       <c r="M88" s="52">
-        <v>7.54</v>
+        <v>7.9859999999999998</v>
       </c>
       <c r="N88" s="53">
-        <v>44860.555660928301</v>
+        <v>45053.396185254103</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -5229,40 +5226,40 @@
         <v>155</v>
       </c>
       <c r="C89" s="50">
-        <v>2.1393939393939401</v>
+        <v>1.8968750000000001</v>
       </c>
       <c r="D89" s="51">
-        <v>6.6878787878787902</v>
+        <v>6.4249999999999998</v>
       </c>
       <c r="E89" s="51">
-        <v>23.493939393939399</v>
+        <v>22.931249999999999</v>
       </c>
       <c r="F89" s="51">
-        <v>38.378787878787897</v>
+        <v>38.421875</v>
       </c>
       <c r="G89" s="52">
-        <v>45.2545454545455</v>
+        <v>45.318750000000001</v>
       </c>
       <c r="H89" s="51">
-        <v>1.43</v>
+        <v>1.3008823529411799</v>
       </c>
       <c r="I89" s="51">
-        <v>1.6206896551724099</v>
+        <v>1.37088235294118</v>
       </c>
       <c r="J89" s="52">
-        <v>1.2967741935483901</v>
+        <v>1.2597058823529399</v>
       </c>
       <c r="K89" s="51">
-        <v>1.4935483870967701</v>
+        <v>1.6414285714285699</v>
       </c>
       <c r="L89" s="51">
-        <v>1.66</v>
+        <v>1.60735294117647</v>
       </c>
       <c r="M89" s="52">
-        <v>1.4258064516129001</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="N89" s="53">
-        <v>36564.995408792398</v>
+        <v>37482.6155580825</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5271,40 +5268,40 @@
         <v>156</v>
       </c>
       <c r="C90" s="55">
-        <v>0.34250000000000003</v>
+        <v>0.28461538461538</v>
       </c>
       <c r="D90" s="56">
-        <v>0.89500000000000002</v>
+        <v>0.54102564102563999</v>
       </c>
       <c r="E90" s="56">
-        <v>2.875</v>
+        <v>1.5794871794871801</v>
       </c>
       <c r="F90" s="56">
-        <v>31.81</v>
+        <v>31.494871794871798</v>
       </c>
       <c r="G90" s="57">
-        <v>39.8125</v>
+        <v>39.538461538461497</v>
       </c>
       <c r="H90" s="56">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I90" s="56">
-        <v>0.1</v>
+        <v>9.3333333333330007E-2</v>
       </c>
       <c r="J90" s="57">
-        <v>0.1</v>
+        <v>8.666666666667E-2</v>
       </c>
       <c r="K90" s="56">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="L90" s="56">
-        <v>0.1</v>
+        <v>0.10666666666667</v>
       </c>
       <c r="M90" s="57">
-        <v>0.1</v>
+        <v>0.12666666666667001</v>
       </c>
       <c r="N90" s="58">
-        <v>101801.71680505401</v>
+        <v>101601.579377556</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5313,40 +5310,40 @@
         <v>157</v>
       </c>
       <c r="C91" s="60">
-        <v>36.806451612903203</v>
+        <v>32.9892857142857</v>
       </c>
       <c r="D91" s="61">
-        <v>63.461290322580702</v>
+        <v>60.6928571428572</v>
       </c>
       <c r="E91" s="61">
-        <v>86.9677419354839</v>
+        <v>85.757142857142895</v>
       </c>
       <c r="F91" s="61">
-        <v>40.454838709677396</v>
+        <v>40.553571428571402</v>
       </c>
       <c r="G91" s="62">
-        <v>47.496551724137902</v>
+        <v>47.470370370370397</v>
       </c>
       <c r="H91" s="61">
-        <v>40.35</v>
+        <v>36.847241379310297</v>
       </c>
       <c r="I91" s="61">
-        <v>41.4</v>
+        <v>38.514137931034497</v>
       </c>
       <c r="J91" s="62">
-        <v>39.389285714285698</v>
+        <v>35.4862068965517</v>
       </c>
       <c r="K91" s="61">
-        <v>44.178571428571402</v>
+        <v>41.176896551724099</v>
       </c>
       <c r="L91" s="61">
-        <v>43.221428571428604</v>
+        <v>39.996551724138001</v>
       </c>
       <c r="M91" s="62">
-        <v>45.132142857142902</v>
+        <v>42.118620689655202</v>
       </c>
       <c r="N91" s="63">
-        <v>6560.2040623673001</v>
+        <v>6645.8814293147198</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -5355,40 +5352,40 @@
         <v>158</v>
       </c>
       <c r="C92" s="50">
-        <v>12.088888888888899</v>
+        <v>9.9142857142857199</v>
       </c>
       <c r="D92" s="51">
-        <v>38.799999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="E92" s="51">
-        <v>75.5555555555556</v>
+        <v>73.428571428571502</v>
       </c>
       <c r="F92" s="51">
-        <v>34.522222222222197</v>
+        <v>33.214285714285701</v>
       </c>
       <c r="G92" s="52">
-        <v>42.7</v>
+        <v>41.8</v>
       </c>
       <c r="H92" s="51">
-        <v>13.4</v>
+        <v>14.272</v>
       </c>
       <c r="I92" s="51">
-        <v>13.2</v>
+        <v>13.936</v>
       </c>
       <c r="J92" s="52">
-        <v>13.41</v>
+        <v>14.743</v>
       </c>
       <c r="K92" s="51">
-        <v>14.47</v>
+        <v>16.116</v>
       </c>
       <c r="L92" s="51">
-        <v>14.24</v>
+        <v>15.757999999999999</v>
       </c>
       <c r="M92" s="52">
-        <v>14.25</v>
+        <v>16.321999999999999</v>
       </c>
       <c r="N92" s="53">
-        <v>10638.380747969</v>
+        <v>12895.476279763299</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -5412,25 +5409,25 @@
         <v>45.616666666666703</v>
       </c>
       <c r="H93" s="51">
-        <v>24.6666666666667</v>
+        <v>9.2949999999999999</v>
       </c>
       <c r="I93" s="51">
-        <v>25.933333333333302</v>
+        <v>10.87</v>
       </c>
       <c r="J93" s="52">
-        <v>23.733333333333299</v>
+        <v>8.2424999999999997</v>
       </c>
       <c r="K93" s="51">
-        <v>21.324999999999999</v>
+        <v>12.32</v>
       </c>
       <c r="L93" s="51">
-        <v>20.65</v>
+        <v>11.404999999999999</v>
       </c>
       <c r="M93" s="52">
-        <v>21.8</v>
+        <v>13</v>
       </c>
       <c r="N93" s="53">
-        <v>18784.7787334567</v>
+        <v>18669.23454542</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -5439,40 +5436,40 @@
         <v>160</v>
       </c>
       <c r="C94" s="50">
-        <v>7.4</v>
+        <v>5.7545454545454602</v>
       </c>
       <c r="D94" s="51">
-        <v>23.3071428571429</v>
+        <v>20.2909090909091</v>
       </c>
       <c r="E94" s="51">
-        <v>53.4</v>
+        <v>49.281818181818203</v>
       </c>
       <c r="F94" s="51">
-        <v>36.035714285714299</v>
+        <v>35.118181818181803</v>
       </c>
       <c r="G94" s="52">
-        <v>43.642857142857103</v>
+        <v>42.9181818181818</v>
       </c>
       <c r="H94" s="51">
-        <v>9.0749999999999993</v>
+        <v>9.3716666666666697</v>
       </c>
       <c r="I94" s="51">
-        <v>9.2750000000000004</v>
+        <v>9.5425000000000004</v>
       </c>
       <c r="J94" s="52">
-        <v>8.8833333333333293</v>
+        <v>9.1883333333333308</v>
       </c>
       <c r="K94" s="51">
-        <v>9.4833333333333307</v>
+        <v>11.6591666666667</v>
       </c>
       <c r="L94" s="51">
-        <v>9.7416666666666707</v>
+        <v>11.0116666666667</v>
       </c>
       <c r="M94" s="52">
-        <v>9.375</v>
+        <v>11.991666666666699</v>
       </c>
       <c r="N94" s="53">
-        <v>38466.5806489561</v>
+        <v>39576.116508344901</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5496,25 +5493,25 @@
         <v>50.414285714285697</v>
       </c>
       <c r="H95" s="51">
-        <v>39.313333333333297</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="I95" s="51">
-        <v>40.713333333333303</v>
+        <v>39.517333333333298</v>
       </c>
       <c r="J95" s="52">
-        <v>38.119999999999997</v>
+        <v>35.912666666666702</v>
       </c>
       <c r="K95" s="51">
-        <v>42.96</v>
+        <v>42.476666666666702</v>
       </c>
       <c r="L95" s="51">
-        <v>41.793333333333301</v>
+        <v>40.576000000000001</v>
       </c>
       <c r="M95" s="52">
-        <v>43.873333333333299</v>
+        <v>43.934666666666701</v>
       </c>
       <c r="N95" s="53">
-        <v>5710.9625394132499</v>
+        <v>5738.2447707545798</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5523,40 +5520,40 @@
         <v>162</v>
       </c>
       <c r="C96" s="55">
-        <v>2.16363636363636</v>
+        <v>2</v>
       </c>
       <c r="D96" s="56">
-        <v>10.863636363636401</v>
+        <v>10.8818181818182</v>
       </c>
       <c r="E96" s="56">
-        <v>38.627272727272697</v>
+        <v>37.972727272727298</v>
       </c>
       <c r="F96" s="56">
-        <v>33.727272727272698</v>
+        <v>33.690909090909102</v>
       </c>
       <c r="G96" s="57">
-        <v>41.7</v>
+        <v>41.645454545454498</v>
       </c>
       <c r="H96" s="56">
-        <v>2.3076923076923102</v>
+        <v>2.2821428571428601</v>
       </c>
       <c r="I96" s="56">
-        <v>2.1923076923076898</v>
+        <v>2.3407142857142902</v>
       </c>
       <c r="J96" s="57">
-        <v>2.4153846153846201</v>
+        <v>2.2107142857142899</v>
       </c>
       <c r="K96" s="56">
-        <v>2.9230769230769198</v>
+        <v>2.6253333333333302</v>
       </c>
       <c r="L96" s="56">
-        <v>2.9307692307692301</v>
+        <v>3.0207142857142899</v>
       </c>
       <c r="M96" s="57">
-        <v>2.8615384615384598</v>
+        <v>2.4973333333333301</v>
       </c>
       <c r="N96" s="58">
-        <v>20927.902705442</v>
+        <v>22411.145437528699</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -5565,40 +5562,40 @@
         <v>163</v>
       </c>
       <c r="C97" s="60">
-        <v>35.856250000000003</v>
+        <v>32.0724137931035</v>
       </c>
       <c r="D97" s="61">
-        <v>62.40625</v>
+        <v>59.624137931034497</v>
       </c>
       <c r="E97" s="61">
-        <v>86.212500000000006</v>
+        <v>84.965517241379303</v>
       </c>
       <c r="F97" s="61">
-        <v>41.246875000000003</v>
+        <v>41.424137931034501</v>
       </c>
       <c r="G97" s="62">
-        <v>47.963333333333402</v>
+        <v>47.971428571428604</v>
       </c>
       <c r="H97" s="61">
-        <v>37.541935483871001</v>
+        <v>35.395312500000003</v>
       </c>
       <c r="I97" s="61">
-        <v>38.9</v>
+        <v>37.224687500000002</v>
       </c>
       <c r="J97" s="62">
-        <v>36.274193548387103</v>
+        <v>33.875</v>
       </c>
       <c r="K97" s="61">
-        <v>41.8193548387097</v>
+        <v>39.998437500000001</v>
       </c>
       <c r="L97" s="61">
-        <v>40.793548387096799</v>
+        <v>38.816562500000003</v>
       </c>
       <c r="M97" s="62">
-        <v>42.716129032258102</v>
+        <v>40.904375000000002</v>
       </c>
       <c r="N97" s="63">
-        <v>9745.50094867814</v>
+        <v>9421.2262757298904</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5607,40 +5604,40 @@
         <v>164</v>
       </c>
       <c r="C98" s="55">
-        <v>10.5</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="D98" s="56">
-        <v>32.146153846153801</v>
+        <v>29.63</v>
       </c>
       <c r="E98" s="56">
-        <v>64.269230769230802</v>
+        <v>63.59</v>
       </c>
       <c r="F98" s="56">
-        <v>37.961538461538503</v>
+        <v>38.58</v>
       </c>
       <c r="G98" s="57">
-        <v>45.330769230769199</v>
+        <v>45.91</v>
       </c>
       <c r="H98" s="56">
-        <v>12.264705882352899</v>
+        <v>14.395294117647101</v>
       </c>
       <c r="I98" s="56">
-        <v>11.5529411764706</v>
+        <v>14.5923529411765</v>
       </c>
       <c r="J98" s="57">
-        <v>12.388235294117701</v>
+        <v>14.3158823529412</v>
       </c>
       <c r="K98" s="56">
-        <v>12.888235294117701</v>
+        <v>16.0388235294118</v>
       </c>
       <c r="L98" s="56">
-        <v>11.588235294117601</v>
+        <v>15.02</v>
       </c>
       <c r="M98" s="57">
-        <v>13.1647058823529</v>
+        <v>16.477058823529401</v>
       </c>
       <c r="N98" s="58">
-        <v>17949.529512889501</v>
+        <v>19795.127592998899</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -5745,8 +5742,8 @@
       <c r="N104" s="67"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>170</v>
+      <c r="A105" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C105" s="67"/>
       <c r="D105" s="67"/>
@@ -5777,7 +5774,7 @@
     </row>
     <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C107" s="67"/>
       <c r="D107" s="67"/>
@@ -5809,7 +5806,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C109" s="67"/>
       <c r="D109" s="67"/>
@@ -5826,7 +5823,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
@@ -5858,7 +5855,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C112" s="67"/>
       <c r="D112" s="67"/>
@@ -5875,7 +5872,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
@@ -5907,11 +5904,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{71D4886C-2E35-4A84-A5E4-A1F1BBF0E498}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{48CEE11C-E6E5-4A1F-A5F5-56379170E2CB}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{430923BF-A5D3-49E6-A04E-3D73F28DA376}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{46119921-A761-4848-A220-883C2F74CC41}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{09101887-21B2-4436-97B8-4EB1AF57B0C0}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B8FA5AC9-48CD-4557-8876-211DEE82EF1B}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EB917A41-A9BE-4495-9802-0FB5E6E8FE8A}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{B4645AB9-42D5-41E3-9267-40C30EDEB76A}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{824F6B56-E22C-445D-B527-3B0FEB266D59}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{AA9B9E5B-BE1F-40F2-8E42-B3BE5543FB51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72FE38F7-5850-4781-B0BA-F27E5DC8515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F7EFD3-2318-49E4-834C-0BB1AAD7825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{E7EE3F38-C4C0-4E5B-8A07-903DAF8C6F78}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB19EDB2-1478-4FA8-ACF0-D71CE77FE43D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab09'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab09'!$A$1:$G$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="176">
   <si>
     <t>Tableau 9 : Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -273,7 +273,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -351,7 +351,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -405,7 +405,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>(1) Pourcentage de ménages dont les revenus pour l'année la plus récente rapportée entre 2010 et 2019 en dollars PPA 2017 en dessous du seuil de pauvreté défini par la Banque mondiale ; PRII = "pays à revenu intermédiaire de la tranche inférieure" ; PRIS = "pays à revenu intermédiaire supérieur";</t>
+  </si>
+  <si>
+    <t>Source : Indicateurs du développement dans le monde issus des statistiques du FMI sur la balance des paiements (bases de données et communiqués des banques centrales, des agences nationales de statistique et des bureaux pays de la Banque mondiale - récupérés le 22/12/2022), Organisation internationale du travail - ILOSTAT (récupéré le 14/05/2023).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1415,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A0BB1D-0BC8-455C-B31F-1D71D734E12D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EC6194-4606-422B-BFF3-8C2C60D30CD3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2860,43 +2863,43 @@
       <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="32">
         <v>67.3</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="33">
         <v>86.5</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="33">
         <v>96.6</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="33">
         <v>44.1</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" s="19">
+      <c r="G34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="35">
         <v>7081.2</v>
       </c>
     </row>
@@ -3872,43 +3875,43 @@
       <c r="A57" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="21">
         <v>30.9</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="22">
         <v>63.5</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="22">
         <v>90.8</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="22">
         <v>35.1</v>
       </c>
-      <c r="G57" s="34">
+      <c r="G57" s="23">
         <v>42.4</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="22">
         <v>33.08</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="22">
         <v>31.2</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="23">
         <v>34.549999999999997</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="22">
         <v>41.83</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="22">
         <v>35.880000000000003</v>
       </c>
-      <c r="M57" s="34">
+      <c r="M57" s="23">
         <v>46.78</v>
       </c>
-      <c r="N57" s="35">
+      <c r="N57" s="24">
         <v>15710.11</v>
       </c>
     </row>
@@ -4401,25 +4404,25 @@
         <v>48.44</v>
       </c>
       <c r="H69" s="51">
-        <v>46.804000000000002</v>
+        <v>50.226666666666702</v>
       </c>
       <c r="I69" s="51">
-        <v>49.1</v>
+        <v>52.301666666666698</v>
       </c>
       <c r="J69" s="52">
-        <v>44.752000000000002</v>
+        <v>48.363333333333401</v>
       </c>
       <c r="K69" s="51">
-        <v>49.957999999999998</v>
+        <v>53.085000000000001</v>
       </c>
       <c r="L69" s="51">
-        <v>49.671999999999997</v>
+        <v>52.743333333333297</v>
       </c>
       <c r="M69" s="52">
-        <v>50.287999999999997</v>
+        <v>53.49</v>
       </c>
       <c r="N69" s="53">
-        <v>7027.5093388349296</v>
+        <v>5772.4617624208704</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -4737,25 +4740,25 @@
         <v>50.322222222222202</v>
       </c>
       <c r="H77" s="51">
-        <v>4.9649999999999999</v>
+        <v>3.1427272727272699</v>
       </c>
       <c r="I77" s="51">
-        <v>5.2908333333333397</v>
+        <v>3.36181818181818</v>
       </c>
       <c r="J77" s="52">
-        <v>4.7516666666666696</v>
+        <v>2.99545454545455</v>
       </c>
       <c r="K77" s="51">
-        <v>5.9458333333333302</v>
+        <v>4.05454545454546</v>
       </c>
       <c r="L77" s="51">
-        <v>5.5691666666666704</v>
+        <v>3.8727272727272699</v>
       </c>
       <c r="M77" s="52">
-        <v>6.0866666666666696</v>
+        <v>4.1218181818181803</v>
       </c>
       <c r="N77" s="53">
-        <v>34943.826398239202</v>
+        <v>35609.515199871297</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -4848,40 +4851,40 @@
         <v>146</v>
       </c>
       <c r="C80" s="60">
-        <v>17.75</v>
+        <v>23.816666666666698</v>
       </c>
       <c r="D80" s="61">
-        <v>39.1</v>
+        <v>42.933333333333302</v>
       </c>
       <c r="E80" s="61">
-        <v>67.849999999999994</v>
+        <v>68.816666666666706</v>
       </c>
       <c r="F80" s="61">
-        <v>39.483333333333299</v>
+        <v>40.983333333333299</v>
       </c>
       <c r="G80" s="62">
-        <v>46.0833333333333</v>
+        <v>46.82</v>
       </c>
       <c r="H80" s="61">
-        <v>21.258749999999999</v>
+        <v>19.57</v>
       </c>
       <c r="I80" s="61">
-        <v>22.0075</v>
+        <v>20.694285714285702</v>
       </c>
       <c r="J80" s="62">
-        <v>20.6</v>
+        <v>18.6071428571429</v>
       </c>
       <c r="K80" s="61">
-        <v>24.762499999999999</v>
+        <v>22.324285714285701</v>
       </c>
       <c r="L80" s="61">
-        <v>23.7575</v>
+        <v>22.025714285714301</v>
       </c>
       <c r="M80" s="62">
-        <v>25.565000000000001</v>
+        <v>22.534285714285701</v>
       </c>
       <c r="N80" s="63">
-        <v>20629.127625003901</v>
+        <v>27652.03858937</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -4932,40 +4935,40 @@
         <v>148</v>
       </c>
       <c r="C82" s="50">
-        <v>27.638461538461499</v>
+        <v>26.705128205128201</v>
       </c>
       <c r="D82" s="51">
-        <v>51.720512820512802</v>
+        <v>51.130769230769197</v>
       </c>
       <c r="E82" s="51">
-        <v>76.305128205128199</v>
+        <v>76.156410256410297</v>
       </c>
       <c r="F82" s="51">
-        <v>41.938461538461503</v>
+        <v>41.707692307692298</v>
       </c>
       <c r="G82" s="52">
-        <v>48.626315789473701</v>
+        <v>48.466666666666697</v>
       </c>
       <c r="H82" s="51">
-        <v>29.213333333333299</v>
+        <v>29.31</v>
       </c>
       <c r="I82" s="51">
-        <v>30.840769230769201</v>
+        <v>30.84975</v>
       </c>
       <c r="J82" s="52">
-        <v>27.850256410256399</v>
+        <v>28.017749999999999</v>
       </c>
       <c r="K82" s="51">
-        <v>33.132307692307698</v>
+        <v>33.34975</v>
       </c>
       <c r="L82" s="51">
-        <v>32.169230769230801</v>
+        <v>32.262</v>
       </c>
       <c r="M82" s="52">
-        <v>33.902051282051303</v>
+        <v>34.223999999999997</v>
       </c>
       <c r="N82" s="53">
-        <v>14164.1032279643</v>
+        <v>14486.167408986399</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5016,40 +5019,40 @@
         <v>150</v>
       </c>
       <c r="C84" s="60">
-        <v>36.938888888888897</v>
+        <v>38.226315789473702</v>
       </c>
       <c r="D84" s="61">
-        <v>66.394444444444503</v>
+        <v>66.978947368421103</v>
       </c>
       <c r="E84" s="61">
-        <v>89.322222222222294</v>
+        <v>89.394736842105303</v>
       </c>
       <c r="F84" s="61">
-        <v>39.200000000000003</v>
+        <v>40.142105263157902</v>
       </c>
       <c r="G84" s="62">
-        <v>46.447058823529403</v>
+        <v>47.272222222222197</v>
       </c>
       <c r="H84" s="61">
-        <v>40.979047619047599</v>
+        <v>41.5595454545455</v>
       </c>
       <c r="I84" s="61">
-        <v>43.098571428571397</v>
+        <v>43.717727272727302</v>
       </c>
       <c r="J84" s="62">
-        <v>39.216190476190498</v>
+        <v>39.765909090909098</v>
       </c>
       <c r="K84" s="61">
-        <v>45.576190476190497</v>
+        <v>46.120909090909102</v>
       </c>
       <c r="L84" s="61">
-        <v>44.633809523809497</v>
+        <v>45.1681818181818</v>
       </c>
       <c r="M84" s="62">
-        <v>46.334761904761898</v>
+        <v>46.891818181818202</v>
       </c>
       <c r="N84" s="63">
-        <v>5643.48490588192</v>
+        <v>5781.5187296337799</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -5100,40 +5103,40 @@
         <v>152</v>
       </c>
       <c r="C86" s="50">
-        <v>22.1380952380952</v>
+        <v>20.175000000000001</v>
       </c>
       <c r="D86" s="51">
-        <v>44.485714285714302</v>
+        <v>42.835000000000001</v>
       </c>
       <c r="E86" s="51">
-        <v>73.400000000000006</v>
+        <v>72.534999999999997</v>
       </c>
       <c r="F86" s="51">
-        <v>42.123809523809499</v>
+        <v>41.375</v>
       </c>
       <c r="G86" s="52">
-        <v>48.3904761904762</v>
+        <v>47.744999999999997</v>
       </c>
       <c r="H86" s="51">
-        <v>20.026666666666699</v>
+        <v>18.340499999999999</v>
       </c>
       <c r="I86" s="51">
-        <v>20.9604761904762</v>
+        <v>19.172499999999999</v>
       </c>
       <c r="J86" s="52">
-        <v>19.220952380952401</v>
+        <v>17.616499999999998</v>
       </c>
       <c r="K86" s="51">
-        <v>23.453333333333301</v>
+        <v>21.748000000000001</v>
       </c>
       <c r="L86" s="51">
-        <v>22.191428571428599</v>
+        <v>20.4815</v>
       </c>
       <c r="M86" s="52">
-        <v>24.463809523809498</v>
+        <v>22.7575</v>
       </c>
       <c r="N86" s="53">
-        <v>20468.190740382201</v>
+        <v>20753.693944891002</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -5157,25 +5160,25 @@
         <v>43.6666666666667</v>
       </c>
       <c r="H87" s="51">
-        <v>6.6074074074074103</v>
+        <v>6.1985185185185196</v>
       </c>
       <c r="I87" s="51">
-        <v>6.3622222222222202</v>
+        <v>6.0062962962963002</v>
       </c>
       <c r="J87" s="52">
-        <v>6.7285185185185199</v>
+        <v>6.2896296296296299</v>
       </c>
       <c r="K87" s="51">
-        <v>8.07</v>
+        <v>7.6096296296296302</v>
       </c>
       <c r="L87" s="51">
-        <v>7.69</v>
+        <v>7.3233333333333404</v>
       </c>
       <c r="M87" s="52">
-        <v>8.2822222222222202</v>
+        <v>7.7803703703703704</v>
       </c>
       <c r="N87" s="53">
-        <v>20134.482286776201</v>
+        <v>20191.4117430693</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -5226,40 +5229,40 @@
         <v>155</v>
       </c>
       <c r="C89" s="50">
-        <v>1.8968750000000001</v>
+        <v>1.94</v>
       </c>
       <c r="D89" s="51">
-        <v>6.4249999999999998</v>
+        <v>6.58</v>
       </c>
       <c r="E89" s="51">
-        <v>22.931249999999999</v>
+        <v>23.696666666666701</v>
       </c>
       <c r="F89" s="51">
-        <v>38.421875</v>
+        <v>38.133333333333297</v>
       </c>
       <c r="G89" s="52">
-        <v>45.318750000000001</v>
+        <v>45.15</v>
       </c>
       <c r="H89" s="51">
-        <v>1.3008823529411799</v>
+        <v>1.66333333333333</v>
       </c>
       <c r="I89" s="51">
-        <v>1.37088235294118</v>
+        <v>1.6966666666666701</v>
       </c>
       <c r="J89" s="52">
-        <v>1.2597058823529399</v>
+        <v>1.6421212121212101</v>
       </c>
       <c r="K89" s="51">
-        <v>1.6414285714285699</v>
+        <v>2.0326470588235299</v>
       </c>
       <c r="L89" s="51">
-        <v>1.60735294117647</v>
+        <v>1.94060606060606</v>
       </c>
       <c r="M89" s="52">
-        <v>1.6739999999999999</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="N89" s="53">
-        <v>37482.6155580825</v>
+        <v>37189.394554015998</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5268,40 +5271,40 @@
         <v>156</v>
       </c>
       <c r="C90" s="55">
-        <v>0.28461538461538</v>
+        <v>0.33170731707317003</v>
       </c>
       <c r="D90" s="56">
-        <v>0.54102564102563999</v>
+        <v>0.71463414634146005</v>
       </c>
       <c r="E90" s="56">
-        <v>1.5794871794871801</v>
+        <v>2.0609756097560998</v>
       </c>
       <c r="F90" s="56">
-        <v>31.494871794871798</v>
+        <v>32.0439024390244</v>
       </c>
       <c r="G90" s="57">
-        <v>39.538461538461497</v>
+        <v>39.943902439024399</v>
       </c>
       <c r="H90" s="56">
-        <v>0.09</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="I90" s="56">
-        <v>9.3333333333330007E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="J90" s="57">
-        <v>8.666666666667E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="K90" s="56">
-        <v>0.12</v>
+        <v>0.28249999999999997</v>
       </c>
       <c r="L90" s="56">
-        <v>0.10666666666667</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="M90" s="57">
-        <v>0.12666666666667001</v>
+        <v>0.32250000000000001</v>
       </c>
       <c r="N90" s="58">
-        <v>101601.579377556</v>
+        <v>100881.22222255501</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -5334,10 +5337,10 @@
         <v>35.4862068965517</v>
       </c>
       <c r="K91" s="61">
-        <v>41.176896551724099</v>
+        <v>41.176896551724198</v>
       </c>
       <c r="L91" s="61">
-        <v>39.996551724138001</v>
+        <v>39.996551724137902</v>
       </c>
       <c r="M91" s="62">
         <v>42.118620689655202</v>
@@ -5469,7 +5472,7 @@
         <v>11.991666666666699</v>
       </c>
       <c r="N94" s="53">
-        <v>39576.116508344901</v>
+        <v>38429.385616631203</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -5562,40 +5565,40 @@
         <v>163</v>
       </c>
       <c r="C97" s="60">
-        <v>32.0724137931035</v>
+        <v>31.6666666666667</v>
       </c>
       <c r="D97" s="61">
-        <v>59.624137931034497</v>
+        <v>59.41</v>
       </c>
       <c r="E97" s="61">
-        <v>84.965517241379303</v>
+        <v>84.913333333333398</v>
       </c>
       <c r="F97" s="61">
-        <v>41.424137931034501</v>
+        <v>41.303333333333299</v>
       </c>
       <c r="G97" s="62">
-        <v>47.971428571428604</v>
+        <v>47.8827586206897</v>
       </c>
       <c r="H97" s="61">
-        <v>35.395312500000003</v>
+        <v>34.7960606060606</v>
       </c>
       <c r="I97" s="61">
-        <v>37.224687500000002</v>
+        <v>36.3809090909091</v>
       </c>
       <c r="J97" s="62">
-        <v>33.875</v>
+        <v>33.477575757575799</v>
       </c>
       <c r="K97" s="61">
-        <v>39.998437500000001</v>
+        <v>39.371818181818199</v>
       </c>
       <c r="L97" s="61">
-        <v>38.816562500000003</v>
+        <v>38.054545454545497</v>
       </c>
       <c r="M97" s="62">
-        <v>40.904375000000002</v>
+        <v>40.427878787878797</v>
       </c>
       <c r="N97" s="63">
-        <v>9421.2262757298904</v>
+        <v>9417.35340430014</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5604,40 +5607,40 @@
         <v>164</v>
       </c>
       <c r="C98" s="55">
-        <v>8.0500000000000007</v>
+        <v>9.5363636363636406</v>
       </c>
       <c r="D98" s="56">
-        <v>29.63</v>
+        <v>33.227272727272698</v>
       </c>
       <c r="E98" s="56">
-        <v>63.59</v>
+        <v>66.409090909090907</v>
       </c>
       <c r="F98" s="56">
-        <v>38.58</v>
+        <v>37.681818181818201</v>
       </c>
       <c r="G98" s="57">
-        <v>45.91</v>
+        <v>45.227272727272698</v>
       </c>
       <c r="H98" s="56">
-        <v>14.395294117647101</v>
+        <v>13.8305263157895</v>
       </c>
       <c r="I98" s="56">
-        <v>14.5923529411765</v>
+        <v>13.901578947368399</v>
       </c>
       <c r="J98" s="57">
-        <v>14.3158823529412</v>
+        <v>13.842631578947399</v>
       </c>
       <c r="K98" s="56">
-        <v>16.0388235294118</v>
+        <v>15.487894736842099</v>
       </c>
       <c r="L98" s="56">
-        <v>15.02</v>
+        <v>14.5831578947368</v>
       </c>
       <c r="M98" s="57">
-        <v>16.477058823529401</v>
+        <v>15.8710526315789</v>
       </c>
       <c r="N98" s="58">
-        <v>19795.127592998899</v>
+        <v>19989.166093751399</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -5742,8 +5745,8 @@
       <c r="N104" s="67"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A105" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="C105" s="67"/>
       <c r="D105" s="67"/>
@@ -5774,7 +5777,7 @@
     </row>
     <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C107" s="67"/>
       <c r="D107" s="67"/>
@@ -5806,7 +5809,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C109" s="67"/>
       <c r="D109" s="67"/>
@@ -5823,7 +5826,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
@@ -5855,7 +5858,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C112" s="67"/>
       <c r="D112" s="67"/>
@@ -5872,7 +5875,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
@@ -5904,11 +5907,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B8FA5AC9-48CD-4557-8876-211DEE82EF1B}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EB917A41-A9BE-4495-9802-0FB5E6E8FE8A}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{B4645AB9-42D5-41E3-9267-40C30EDEB76A}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{824F6B56-E22C-445D-B527-3B0FEB266D59}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{AA9B9E5B-BE1F-40F2-8E42-B3BE5543FB51}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9AF14CF8-69E6-441D-AED9-A100F4E4A3FD}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{99A4203B-2D3C-4CE6-9FCF-154F04021420}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{873940BB-DBDB-4292-AE2B-37CAA4429CED}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D79276F1-EB73-4278-8B82-255F90940C7A}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{F85C16F4-51C8-40DC-8624-2FA627936FAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F7EFD3-2318-49E4-834C-0BB1AAD7825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7994E63-05CF-4780-9C27-849222728FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB19EDB2-1478-4FA8-ACF0-D71CE77FE43D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{269BA3A4-6C12-4133-AE93-96941A8C1FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -1418,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EC6194-4606-422B-BFF3-8C2C60D30CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469C21CB-A4ED-4828-89AF-4BCDBC73BECD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4107,7 +4107,7 @@
         <v>41.6111111111111</v>
       </c>
       <c r="G62" s="41">
-        <v>48.279545454545499</v>
+        <v>48.279545454545399</v>
       </c>
       <c r="H62" s="40">
         <v>27.8593617021277</v>
@@ -4137,19 +4137,19 @@
         <v>131</v>
       </c>
       <c r="C63" s="44">
-        <v>2.34</v>
+        <v>2.3285714285714301</v>
       </c>
       <c r="D63" s="45">
-        <v>8.63263157894737</v>
+        <v>8.5481481481481492</v>
       </c>
       <c r="E63" s="45">
-        <v>23.06</v>
+        <v>22.8603174603175</v>
       </c>
       <c r="F63" s="45">
-        <v>34.991578947368403</v>
+        <v>34.976190476190503</v>
       </c>
       <c r="G63" s="46">
-        <v>42.587368421052602</v>
+        <v>42.574603174603098</v>
       </c>
       <c r="H63" s="45">
         <v>5.2185074626865697</v>
@@ -4221,19 +4221,19 @@
         <v>133</v>
       </c>
       <c r="C65" s="50">
-        <v>5</v>
+        <v>5.0128205128205101</v>
       </c>
       <c r="D65" s="51">
-        <v>21.885000000000002</v>
+        <v>21.815384615384598</v>
       </c>
       <c r="E65" s="51">
-        <v>52.04</v>
+        <v>51.815384615384602</v>
       </c>
       <c r="F65" s="51">
-        <v>35.174999999999997</v>
+        <v>35.105128205128203</v>
       </c>
       <c r="G65" s="52">
-        <v>43.255000000000003</v>
+        <v>43.210256410256399</v>
       </c>
       <c r="H65" s="51">
         <v>6.9944444444444498</v>
@@ -4263,19 +4263,19 @@
         <v>134</v>
       </c>
       <c r="C66" s="55">
-        <v>10.047857142857101</v>
+        <v>10.0677419354839</v>
       </c>
       <c r="D66" s="56">
-        <v>21.941428571428599</v>
+        <v>21.931899641577001</v>
       </c>
       <c r="E66" s="56">
-        <v>39.812142857142803</v>
+        <v>39.736917562724102</v>
       </c>
       <c r="F66" s="56">
-        <v>37.119285714285702</v>
+        <v>37.116487455197102</v>
       </c>
       <c r="G66" s="57">
-        <v>44.389208633093503</v>
+        <v>44.387003610108302</v>
       </c>
       <c r="H66" s="56">
         <v>14.5528947368421</v>
@@ -4359,7 +4359,7 @@
         <v>37.576190476190497</v>
       </c>
       <c r="G68" s="52">
-        <v>45.038095238095202</v>
+        <v>45.038095238095302</v>
       </c>
       <c r="H68" s="51">
         <v>20.948181818181801</v>
@@ -4683,19 +4683,19 @@
         <v>143</v>
       </c>
       <c r="C76" s="60">
-        <v>2.3285714285714301</v>
+        <v>2.1615384615384601</v>
       </c>
       <c r="D76" s="61">
-        <v>13.842857142857101</v>
+        <v>13.015384615384599</v>
       </c>
       <c r="E76" s="61">
-        <v>41.271428571428601</v>
+        <v>39.769230769230802</v>
       </c>
       <c r="F76" s="61">
-        <v>37.314285714285703</v>
+        <v>37.269230769230802</v>
       </c>
       <c r="G76" s="62">
-        <v>44.828571428571401</v>
+        <v>44.815384615384602</v>
       </c>
       <c r="H76" s="61">
         <v>4.7171428571428597</v>
@@ -4938,7 +4938,7 @@
         <v>26.705128205128201</v>
       </c>
       <c r="D82" s="51">
-        <v>51.130769230769197</v>
+        <v>51.130769230769303</v>
       </c>
       <c r="E82" s="51">
         <v>76.156410256410297</v>
@@ -4977,19 +4977,19 @@
         <v>149</v>
       </c>
       <c r="C83" s="55">
-        <v>1.9862068965517199</v>
+        <v>1.97167630057803</v>
       </c>
       <c r="D83" s="56">
-        <v>7.7229885057471304</v>
+        <v>7.6254335260115704</v>
       </c>
       <c r="E83" s="56">
-        <v>21.780459770114899</v>
+        <v>21.5549132947977</v>
       </c>
       <c r="F83" s="56">
-        <v>35.052873563218398</v>
+        <v>35.036416184971102</v>
       </c>
       <c r="G83" s="57">
-        <v>42.601149425287403</v>
+        <v>42.587283236994203</v>
       </c>
       <c r="H83" s="56">
         <v>3.9020754716981099</v>
@@ -5109,7 +5109,7 @@
         <v>42.835000000000001</v>
       </c>
       <c r="E86" s="51">
-        <v>72.534999999999997</v>
+        <v>72.535000000000096</v>
       </c>
       <c r="F86" s="51">
         <v>41.375</v>
@@ -5145,19 +5145,19 @@
         <v>153</v>
       </c>
       <c r="C87" s="50">
-        <v>5.4666666666666703</v>
+        <v>5.4872340425531902</v>
       </c>
       <c r="D87" s="51">
-        <v>22.508333333333301</v>
+        <v>22.463829787234101</v>
       </c>
       <c r="E87" s="51">
-        <v>54.858333333333299</v>
+        <v>54.731914893617002</v>
       </c>
       <c r="F87" s="51">
-        <v>35.908333333333303</v>
+        <v>35.865957446808501</v>
       </c>
       <c r="G87" s="52">
-        <v>43.6666666666667</v>
+        <v>43.638297872340502</v>
       </c>
       <c r="H87" s="51">
         <v>6.1985185185185196</v>
@@ -5238,7 +5238,7 @@
         <v>23.696666666666701</v>
       </c>
       <c r="F89" s="51">
-        <v>38.133333333333297</v>
+        <v>38.133333333333397</v>
       </c>
       <c r="G89" s="52">
         <v>45.15</v>
@@ -5319,7 +5319,7 @@
         <v>60.6928571428572</v>
       </c>
       <c r="E91" s="61">
-        <v>85.757142857142895</v>
+        <v>85.757142857142796</v>
       </c>
       <c r="F91" s="61">
         <v>40.553571428571402</v>
@@ -5484,7 +5484,7 @@
         <v>42.373333333333299</v>
       </c>
       <c r="D95" s="51">
-        <v>68.193333333333399</v>
+        <v>68.1933333333333</v>
       </c>
       <c r="E95" s="51">
         <v>87.26</v>
@@ -5907,11 +5907,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9AF14CF8-69E6-441D-AED9-A100F4E4A3FD}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{99A4203B-2D3C-4CE6-9FCF-154F04021420}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{873940BB-DBDB-4292-AE2B-37CAA4429CED}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D79276F1-EB73-4278-8B82-255F90940C7A}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{F85C16F4-51C8-40DC-8624-2FA627936FAD}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9245DF55-5C50-4AEA-BAFA-B8B97C00827B}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1159DE32-48B5-4B36-9CFC-8BD60A722C81}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3D589A1D-B0D1-41EA-B0DA-B2C5AB0FF81D}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{F8DAB741-A9B5-4BE4-AA47-126912E8680C}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{D5252E08-BD6E-4AB6-9F45-39171B964CE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7994E63-05CF-4780-9C27-849222728FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11D79E0-0D8B-4028-80AB-4958B971AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{269BA3A4-6C12-4133-AE93-96941A8C1FDB}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{27112CC8-2FA5-4EC6-A827-A149960F6BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -1418,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469C21CB-A4ED-4828-89AF-4BCDBC73BECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F272B652-9691-412C-8A1D-F52D31A83253}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5907,11 +5907,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9245DF55-5C50-4AEA-BAFA-B8B97C00827B}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{1159DE32-48B5-4B36-9CFC-8BD60A722C81}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3D589A1D-B0D1-41EA-B0DA-B2C5AB0FF81D}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{F8DAB741-A9B5-4BE4-AA47-126912E8680C}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{D5252E08-BD6E-4AB6-9F45-39171B964CE6}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D068915B-91E3-494D-B1B3-A0A84F4E3E34}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E735D692-F8D6-4B85-B111-851798AD893E}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{64392CA6-D5E4-44C8-A300-99AB32B579C5}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{42234673-898B-41F3-B85A-2ABBD4BC7A5D}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{0B0ACA22-2FAA-4C88-9D25-9D1998A5B8BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11D79E0-0D8B-4028-80AB-4958B971AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA2E8C21-018F-43A5-8EFD-3A66B42E87B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{27112CC8-2FA5-4EC6-A827-A149960F6BF3}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{E34D029D-056E-41F5-8121-53B9DD43E24D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="177">
   <si>
     <t>Tableau 9 : Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -555,16 +555,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F272B652-9691-412C-8A1D-F52D31A83253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9325C4D-F6D5-4323-B8D7-1F2EA106948D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="67"/>
       <c r="D109" s="67"/>
@@ -5826,7 +5829,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
@@ -5842,7 +5845,9 @@
       <c r="N110" s="67"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
       <c r="E111" s="67"/>
@@ -5858,7 +5863,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C112" s="67"/>
       <c r="D112" s="67"/>
@@ -5875,7 +5880,7 @@
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
@@ -5907,13 +5912,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D068915B-91E3-494D-B1B3-A0A84F4E3E34}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E735D692-F8D6-4B85-B111-851798AD893E}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{64392CA6-D5E4-44C8-A300-99AB32B579C5}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{42234673-898B-41F3-B85A-2ABBD4BC7A5D}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0B0ACA22-2FAA-4C88-9D25-9D1998A5B8BD}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3C7D13CB-947D-40E5-935A-766020DFFFAD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8422A7E6-9A3D-4283-8C4F-8F62544286DF}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{E5F0C8AC-14F3-4AB0-AC12-2F1A509D3F2B}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{75548F20-55B0-4C5D-84CD-F653CC369A86}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{ACE5497D-9262-484E-B221-D403FE18B7FD}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{23BF8BD9-95D2-4B2A-A1EE-69142B6BF15C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab09.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA2E8C21-018F-43A5-8EFD-3A66B42E87B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E374CFFD-DF83-49F0-91F6-DE233D2B6DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{E34D029D-056E-41F5-8121-53B9DD43E24D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{0A437257-8EBE-41A1-8E17-AED6BD171F56}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab09" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab09'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab09'!$A$1:$G$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
   <si>
     <t>Tableau 9 : Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -168,21 +168,21 @@
     <t>République centrafricaine</t>
   </si>
   <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>Tchad*</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>République du Congo*</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
-    <t>TCD</t>
-  </si>
-  <si>
-    <t>Tchad*</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>République du Congo*</t>
-  </si>
-  <si>
     <t>COD</t>
   </si>
   <si>
@@ -549,7 +549,7 @@
     <t>(1) Pourcentage de ménages dont les revenus pour l'année la plus récente rapportée entre 2010 et 2019 en dollars PPA 2017 en dessous du seuil de pauvreté défini par la Banque mondiale ; PRII = "pays à revenu intermédiaire de la tranche inférieure" ; PRIS = "pays à revenu intermédiaire supérieur";</t>
   </si>
   <si>
-    <t>Source : Indicateurs du développement dans le monde issus des statistiques du FMI sur la balance des paiements (bases de données et communiqués des banques centrales, des agences nationales de statistique et des bureaux pays de la Banque mondiale - récupérés le 22/12/2022), Organisation internationale du travail - ILOSTAT (récupéré le 14/05/2023).</t>
+    <t>Source : Indicateurs du développement dans le monde issus des statistiques du FMI sur la balance des paiements (bases de données et communiqués des banques centrales, des agences nationales de statistique et des bureaux pays de la Banque mondiale - récupérés le 10/10/2023), Organisation internationale du travail - ILOSTAT (récupéré le 14/05/2023).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1421,7 +1421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9325C4D-F6D5-4323-B8D7-1F2EA106948D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CF0E8-3D88-40C3-8B11-6F5A2D8027FB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1429,15 +1429,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1454,7 +1454,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>16064.85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>40940.839999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>33996.120000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>6843.35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>4115.6000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1726,19 +1726,19 @@
         <v>26</v>
       </c>
       <c r="C8" s="21">
-        <v>64.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="D8" s="22">
-        <v>83.1</v>
+        <v>88.6</v>
       </c>
       <c r="E8" s="22">
-        <v>93.6</v>
+        <v>96.1</v>
       </c>
       <c r="F8" s="22">
-        <v>54</v>
+        <v>50.5</v>
       </c>
       <c r="G8" s="23">
-        <v>59.5</v>
+        <v>56.1</v>
       </c>
       <c r="H8" s="22">
         <v>58.85</v>
@@ -1762,7 +1762,7 @@
         <v>2924.12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>30931.31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>43358.720000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -1858,19 +1858,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="16">
-        <v>61.4</v>
+        <v>60.8</v>
       </c>
       <c r="D11" s="17">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="E11" s="17">
-        <v>90.7</v>
+        <v>91</v>
       </c>
       <c r="F11" s="17">
-        <v>57.1</v>
+        <v>55.9</v>
       </c>
       <c r="G11" s="18">
-        <v>61.3</v>
+        <v>60.3</v>
       </c>
       <c r="H11" s="17">
         <v>53.75</v>
@@ -1894,7 +1894,7 @@
         <v>9882.65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>5799.66</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
@@ -1946,19 +1946,19 @@
         <v>36</v>
       </c>
       <c r="C13" s="27">
-        <v>38.700000000000003</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="D13" s="28">
-        <v>59.11</v>
+        <v>59.71</v>
       </c>
       <c r="E13" s="28">
-        <v>78.61</v>
+        <v>78.89</v>
       </c>
       <c r="F13" s="28">
-        <v>52.61</v>
+        <v>52.14</v>
       </c>
       <c r="G13" s="29">
-        <v>57.41</v>
+        <v>56.97</v>
       </c>
       <c r="H13" s="28">
         <v>32.798999999999999</v>
@@ -1982,7 +1982,7 @@
         <v>20296.959640759698</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1718.94</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -2070,27 +2070,27 @@
         <v>9370.57</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="21">
+        <v>65.7</v>
+      </c>
+      <c r="D16" s="22">
+        <v>85.8</v>
+      </c>
+      <c r="E16" s="22">
+        <v>96.2</v>
+      </c>
+      <c r="F16" s="22">
         <v>43</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>43</v>
+      <c r="G16" s="23">
+        <v>49.2</v>
       </c>
       <c r="H16" s="22">
         <v>61.59</v>
@@ -2114,12 +2114,12 @@
         <v>2505.59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="32">
         <v>30.9</v>
@@ -2158,27 +2158,27 @@
         <v>4864.01</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>47</v>
-      </c>
       <c r="C18" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H18" s="33">
         <v>53.38</v>
@@ -2202,7 +2202,7 @@
         <v>10922.19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>48</v>
       </c>
@@ -2210,19 +2210,19 @@
         <v>49</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H19" s="17">
         <v>67.34</v>
@@ -2246,7 +2246,7 @@
         <v>3149.35</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
@@ -2254,43 +2254,43 @@
         <v>51</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N20" s="35">
         <v>50448.39</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>60353.14</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
@@ -2357,28 +2357,28 @@
         <v>47.9</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N22" s="24">
         <v>15097.27</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>35</v>
       </c>
@@ -2386,19 +2386,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="27">
-        <v>27.96</v>
+        <v>34.25</v>
       </c>
       <c r="D23" s="28">
-        <v>50.24</v>
+        <v>56.1666666666667</v>
       </c>
       <c r="E23" s="28">
-        <v>74.319999999999993</v>
+        <v>77.966666666666697</v>
       </c>
       <c r="F23" s="28">
-        <v>40.28</v>
+        <v>40.733333333333299</v>
       </c>
       <c r="G23" s="29">
-        <v>47.1</v>
+        <v>47.45</v>
       </c>
       <c r="H23" s="28">
         <v>44.915714285714301</v>
@@ -2422,7 +2422,7 @@
         <v>5757.0440802560497</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>57</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>13161.89</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>59</v>
       </c>
@@ -2489,28 +2489,28 @@
         <v>47.6</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N25" s="24">
         <v>31224.55</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
@@ -2518,43 +2518,43 @@
         <v>62</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N26" s="24">
         <v>4346.3900000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>4934.04</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
@@ -2606,19 +2606,19 @@
         <v>66</v>
       </c>
       <c r="C28" s="21">
-        <v>29.4</v>
+        <v>36.1</v>
       </c>
       <c r="D28" s="22">
-        <v>59.6</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="E28" s="22">
-        <v>85.7</v>
+        <v>91.3</v>
       </c>
       <c r="F28" s="22">
-        <v>40.799999999999997</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="G28" s="23">
-        <v>47.5</v>
+        <v>46.7</v>
       </c>
       <c r="H28" s="22">
         <v>28.56</v>
@@ -2642,7 +2642,7 @@
         <v>10665.65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>67</v>
       </c>
@@ -2650,19 +2650,19 @@
         <v>68</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H29" s="22">
         <v>74.5</v>
@@ -2686,7 +2686,7 @@
         <v>2880.32</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>69</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>43144.23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>71</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>6876.57</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>73</v>
       </c>
@@ -2797,28 +2797,28 @@
         <v>39.1</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>75</v>
       </c>
@@ -2826,19 +2826,19 @@
         <v>76</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H33" s="22">
         <v>58.81</v>
@@ -2862,7 +2862,7 @@
         <v>7738.36</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
@@ -2882,31 +2882,31 @@
         <v>44.1</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N34" s="35">
         <v>7081.2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>79</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>16951.28</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>81</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>5800.68</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>83</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>5965.82</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
         <v>35</v>
       </c>
@@ -3046,19 +3046,19 @@
         <v>85</v>
       </c>
       <c r="C38" s="27">
-        <v>28.763636363636401</v>
+        <v>29.3727272727273</v>
       </c>
       <c r="D38" s="28">
-        <v>51.936363636363701</v>
+        <v>52.890909090909098</v>
       </c>
       <c r="E38" s="28">
-        <v>72.936363636363694</v>
+        <v>73.445454545454595</v>
       </c>
       <c r="F38" s="28">
-        <v>39.709090909090897</v>
+        <v>39.518181818181802</v>
       </c>
       <c r="G38" s="29">
-        <v>46.3</v>
+        <v>46.22</v>
       </c>
       <c r="H38" s="28">
         <v>33.645000000000003</v>
@@ -3082,7 +3082,7 @@
         <v>7594.4010599353096</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>86</v>
       </c>
@@ -3090,19 +3090,19 @@
         <v>87</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H39" s="33">
         <v>0.09</v>
@@ -3126,7 +3126,7 @@
         <v>45241.16</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>88</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>44521.120000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -3178,43 +3178,43 @@
         <v>91</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L41" s="33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N41" s="35">
         <v>60693</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>92</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>25622.43</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>94</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>25119.71</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>96</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>35844.04</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="25" t="s">
         <v>35</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>40901.421724822001</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>99</v>
       </c>
@@ -3398,19 +3398,19 @@
         <v>100</v>
       </c>
       <c r="C46" s="21">
-        <v>19.899999999999999</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D46" s="22">
         <v>53.2</v>
       </c>
       <c r="E46" s="22">
-        <v>83.4</v>
+        <v>83.6</v>
       </c>
       <c r="F46" s="22">
-        <v>37.799999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="G46" s="23">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="H46" s="22">
         <v>15.62</v>
@@ -3434,7 +3434,7 @@
         <v>9111.9599999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>101</v>
       </c>
@@ -3442,19 +3442,19 @@
         <v>102</v>
       </c>
       <c r="C47" s="21">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="D47" s="22">
-        <v>59.8</v>
+        <v>63.1</v>
       </c>
       <c r="E47" s="22">
-        <v>81.099999999999994</v>
+        <v>87.2</v>
       </c>
       <c r="F47" s="22">
-        <v>47.3</v>
+        <v>43</v>
       </c>
       <c r="G47" s="23">
-        <v>54.3</v>
+        <v>50.3</v>
       </c>
       <c r="H47" s="22">
         <v>29.71</v>
@@ -3478,7 +3478,7 @@
         <v>6128.94</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>17122.32</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>105</v>
       </c>
@@ -3530,13 +3530,13 @@
         <v>106</v>
       </c>
       <c r="C49" s="21">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="D49" s="22">
-        <v>39.6</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E49" s="22">
-        <v>75.400000000000006</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="F49" s="22">
         <v>37.200000000000003</v>
@@ -3566,7 +3566,7 @@
         <v>14119.33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>107</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>6368.22</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>109</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>12816.27</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>111</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>9131.1200000000008</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>113</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>5948.79</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>115</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>3237.04</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>117</v>
       </c>
@@ -3794,19 +3794,19 @@
         <v>118</v>
       </c>
       <c r="C55" s="21">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="D55" s="22">
-        <v>47.5</v>
+        <v>48.2</v>
       </c>
       <c r="E55" s="22">
-        <v>80.5</v>
+        <v>81</v>
       </c>
       <c r="F55" s="22">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="G55" s="23">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="H55" s="22">
         <v>18.579999999999998</v>
@@ -3830,7 +3830,7 @@
         <v>6373.93</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>119</v>
       </c>
@@ -3838,10 +3838,10 @@
         <v>120</v>
       </c>
       <c r="C56" s="21">
-        <v>50.6</v>
+        <v>50.9</v>
       </c>
       <c r="D56" s="22">
-        <v>81.099999999999994</v>
+        <v>81.2</v>
       </c>
       <c r="E56" s="22">
         <v>95</v>
@@ -3850,7 +3850,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="G56" s="23">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="H56" s="22">
         <v>39.44</v>
@@ -3874,7 +3874,7 @@
         <v>3293.61</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>121</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>15710.11</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>123</v>
       </c>
@@ -3926,19 +3926,19 @@
         <v>124</v>
       </c>
       <c r="C58" s="21">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D58" s="22">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="E58" s="22">
         <v>74.400000000000006</v>
       </c>
       <c r="F58" s="22">
-        <v>38.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G58" s="23">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="H58" s="22">
         <v>8.73</v>
@@ -3962,7 +3962,7 @@
         <v>12051.6</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>125</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>5125.5600000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>127</v>
       </c>
@@ -4014,19 +4014,19 @@
         <v>128</v>
       </c>
       <c r="C60" s="16">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="D60" s="17">
-        <v>56.8</v>
+        <v>56.9</v>
       </c>
       <c r="E60" s="17">
         <v>84</v>
       </c>
       <c r="F60" s="17">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="G60" s="18">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="H60" s="17">
         <v>14.04</v>
@@ -4050,25 +4050,25 @@
         <v>6316.73</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25"/>
       <c r="B61" s="26" t="s">
         <v>129</v>
       </c>
       <c r="C61" s="27">
-        <v>22.113333333333301</v>
+        <v>22.24</v>
       </c>
       <c r="D61" s="28">
-        <v>52.1533333333333</v>
+        <v>52.453333333333397</v>
       </c>
       <c r="E61" s="28">
-        <v>81.826666666666696</v>
+        <v>82.293333333333393</v>
       </c>
       <c r="F61" s="28">
-        <v>38.093333333333298</v>
+        <v>37.826666666666704</v>
       </c>
       <c r="G61" s="29">
-        <v>45.4866666666667</v>
+        <v>45.233333333333299</v>
       </c>
       <c r="H61" s="28">
         <v>21.7306666666667</v>
@@ -4092,25 +4092,25 @@
         <v>12376.478199926099</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="37"/>
       <c r="B62" s="38" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="39">
-        <v>26.32</v>
+        <v>27.563043478260902</v>
       </c>
       <c r="D62" s="40">
-        <v>50.037777777777798</v>
+        <v>51.271739130434803</v>
       </c>
       <c r="E62" s="40">
-        <v>75.177777777777806</v>
+        <v>75.969565217391306</v>
       </c>
       <c r="F62" s="40">
-        <v>41.6111111111111</v>
+        <v>41.406521739130397</v>
       </c>
       <c r="G62" s="41">
-        <v>48.279545454545399</v>
+        <v>48.1</v>
       </c>
       <c r="H62" s="40">
         <v>27.8593617021277</v>
@@ -4134,25 +4134,25 @@
         <v>15701.8107422414</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="37"/>
       <c r="B63" s="43" t="s">
         <v>131</v>
       </c>
       <c r="C63" s="44">
-        <v>2.3285714285714301</v>
+        <v>2.2947368421052601</v>
       </c>
       <c r="D63" s="45">
-        <v>8.5481481481481492</v>
+        <v>8.4178947368421095</v>
       </c>
       <c r="E63" s="45">
-        <v>22.8603174603175</v>
+        <v>22.6315789473684</v>
       </c>
       <c r="F63" s="45">
-        <v>34.976190476190503</v>
+        <v>34.858947368420999</v>
       </c>
       <c r="G63" s="46">
-        <v>42.574603174603098</v>
+        <v>42.482105263157898</v>
       </c>
       <c r="H63" s="45">
         <v>5.2185074626865697</v>
@@ -4176,25 +4176,25 @@
         <v>41554.734497034602</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="48"/>
       <c r="B64" s="49" t="s">
         <v>132</v>
       </c>
       <c r="C64" s="39">
-        <v>3.5833333333333299</v>
+        <v>3.56666666666667</v>
       </c>
       <c r="D64" s="40">
-        <v>9.56666666666667</v>
+        <v>9.5444444444444496</v>
       </c>
       <c r="E64" s="40">
-        <v>26.55</v>
+        <v>26.338888888888899</v>
       </c>
       <c r="F64" s="40">
-        <v>45.461111111111101</v>
+        <v>45.4722222222222</v>
       </c>
       <c r="G64" s="41">
-        <v>50.994444444444497</v>
+        <v>50.988888888888901</v>
       </c>
       <c r="H64" s="40">
         <v>4.6270833333333403</v>
@@ -4218,25 +4218,25 @@
         <v>35913.204739297697</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="48"/>
       <c r="B65" s="38" t="s">
         <v>133</v>
       </c>
       <c r="C65" s="50">
-        <v>5.0128205128205101</v>
+        <v>4.8</v>
       </c>
       <c r="D65" s="51">
-        <v>21.815384615384598</v>
+        <v>20.885000000000002</v>
       </c>
       <c r="E65" s="51">
-        <v>51.815384615384602</v>
+        <v>50.204999999999998</v>
       </c>
       <c r="F65" s="51">
-        <v>35.105128205128203</v>
+        <v>34.57</v>
       </c>
       <c r="G65" s="52">
-        <v>43.210256410256399</v>
+        <v>42.76</v>
       </c>
       <c r="H65" s="51">
         <v>6.9944444444444498</v>
@@ -4260,25 +4260,25 @@
         <v>24563.037145957202</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="48"/>
       <c r="B66" s="54" t="s">
         <v>134</v>
       </c>
       <c r="C66" s="55">
-        <v>10.0677419354839</v>
+        <v>10.538297872340401</v>
       </c>
       <c r="D66" s="56">
-        <v>21.931899641577001</v>
+        <v>22.398581560283699</v>
       </c>
       <c r="E66" s="56">
-        <v>39.736917562724102</v>
+        <v>40.032624113475201</v>
       </c>
       <c r="F66" s="56">
-        <v>37.116487455197102</v>
+        <v>36.995035460992902</v>
       </c>
       <c r="G66" s="57">
-        <v>44.387003610108302</v>
+        <v>44.287857142857099</v>
       </c>
       <c r="H66" s="56">
         <v>14.5528947368421</v>
@@ -4302,25 +4302,25 @@
         <v>37047.228903517898</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="48"/>
       <c r="B67" s="59" t="s">
         <v>135</v>
       </c>
       <c r="C67" s="60">
-        <v>29.893750000000001</v>
+        <v>30.274999999999999</v>
       </c>
       <c r="D67" s="61">
-        <v>50.381250000000001</v>
+        <v>51.068750000000001</v>
       </c>
       <c r="E67" s="61">
-        <v>71.731250000000003</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F67" s="61">
-        <v>41</v>
+        <v>40.793750000000003</v>
       </c>
       <c r="G67" s="62">
-        <v>47.637500000000003</v>
+        <v>47.524999999999999</v>
       </c>
       <c r="H67" s="61">
         <v>36.068235294117599</v>
@@ -4344,25 +4344,25 @@
         <v>14613.154770957801</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="48"/>
       <c r="B68" s="38" t="s">
         <v>136</v>
       </c>
       <c r="C68" s="50">
-        <v>18.709523809523802</v>
+        <v>20.931818181818201</v>
       </c>
       <c r="D68" s="51">
-        <v>45.514285714285698</v>
+        <v>47.55</v>
       </c>
       <c r="E68" s="51">
-        <v>76.471428571428604</v>
+        <v>77.686363636363595</v>
       </c>
       <c r="F68" s="51">
-        <v>37.576190476190497</v>
+        <v>37.640909090909098</v>
       </c>
       <c r="G68" s="52">
-        <v>45.038095238095302</v>
+        <v>45.054545454545497</v>
       </c>
       <c r="H68" s="51">
         <v>20.948181818181801</v>
@@ -4386,25 +4386,25 @@
         <v>19371.552405394701</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="48"/>
       <c r="B69" s="38" t="s">
         <v>137</v>
       </c>
       <c r="C69" s="50">
-        <v>50.15</v>
+        <v>51.266666666666701</v>
       </c>
       <c r="D69" s="51">
-        <v>76.1666666666667</v>
+        <v>77.9166666666667</v>
       </c>
       <c r="E69" s="51">
-        <v>92.4</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="F69" s="51">
-        <v>41.733333333333299</v>
+        <v>41.383333333333297</v>
       </c>
       <c r="G69" s="52">
-        <v>48.44</v>
+        <v>48.28</v>
       </c>
       <c r="H69" s="51">
         <v>50.226666666666702</v>
@@ -4428,25 +4428,25 @@
         <v>5772.4617624208704</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="48"/>
       <c r="B70" s="38" t="s">
         <v>138</v>
       </c>
       <c r="C70" s="50">
-        <v>31.842857142857099</v>
+        <v>36.075000000000003</v>
       </c>
       <c r="D70" s="51">
-        <v>54.585714285714303</v>
+        <v>58.487499999999997</v>
       </c>
       <c r="E70" s="51">
-        <v>77.400000000000006</v>
+        <v>79.75</v>
       </c>
       <c r="F70" s="51">
-        <v>42.342857142857198</v>
+        <v>42.424999999999997</v>
       </c>
       <c r="G70" s="52">
-        <v>48.842857142857198</v>
+        <v>48.887500000000003</v>
       </c>
       <c r="H70" s="51">
         <v>44.838888888888903</v>
@@ -4470,25 +4470,25 @@
         <v>7468.4761941693596</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="48"/>
       <c r="B71" s="38" t="s">
         <v>139</v>
       </c>
       <c r="C71" s="50">
-        <v>22.113333333333301</v>
+        <v>22.24</v>
       </c>
       <c r="D71" s="51">
-        <v>52.1533333333333</v>
+        <v>52.453333333333397</v>
       </c>
       <c r="E71" s="51">
-        <v>81.826666666666696</v>
+        <v>82.293333333333294</v>
       </c>
       <c r="F71" s="51">
-        <v>38.093333333333298</v>
+        <v>37.826666666666704</v>
       </c>
       <c r="G71" s="52">
-        <v>45.4866666666667</v>
+        <v>45.233333333333299</v>
       </c>
       <c r="H71" s="51">
         <v>21.7306666666667</v>
@@ -4512,25 +4512,25 @@
         <v>12376.478199926099</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="48"/>
       <c r="B72" s="38" t="s">
         <v>140</v>
       </c>
       <c r="C72" s="50">
-        <v>33.383333333333297</v>
+        <v>34.5</v>
       </c>
       <c r="D72" s="51">
-        <v>62.75</v>
+        <v>64.5</v>
       </c>
       <c r="E72" s="51">
-        <v>88.1666666666667</v>
+        <v>89.1</v>
       </c>
       <c r="F72" s="51">
-        <v>39.733333333333299</v>
+        <v>39.383333333333297</v>
       </c>
       <c r="G72" s="52">
-        <v>46</v>
+        <v>45.84</v>
       </c>
       <c r="H72" s="51">
         <v>31.14</v>
@@ -4554,25 +4554,25 @@
         <v>8293.2958934158705</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="48"/>
       <c r="B73" s="38" t="s">
         <v>141</v>
       </c>
       <c r="C73" s="50">
-        <v>32.221428571428604</v>
+        <v>32.878571428571398</v>
       </c>
       <c r="D73" s="51">
-        <v>50.564285714285703</v>
+        <v>50.992857142857098</v>
       </c>
       <c r="E73" s="51">
-        <v>69.085714285714303</v>
+        <v>69.285714285714306</v>
       </c>
       <c r="F73" s="51">
-        <v>48.628571428571398</v>
+        <v>48.292857142857201</v>
       </c>
       <c r="G73" s="52">
-        <v>54.021428571428601</v>
+        <v>53.707142857142898</v>
       </c>
       <c r="H73" s="51">
         <v>35.534666666666702</v>
@@ -4596,7 +4596,7 @@
         <v>12328.0808674281</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="48"/>
       <c r="B74" s="38" t="s">
         <v>141</v>
@@ -4638,25 +4638,25 @@
         <v>37141.405661158802</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="48"/>
       <c r="B75" s="54" t="s">
         <v>142</v>
       </c>
       <c r="C75" s="55">
-        <v>27.52</v>
+        <v>29.48</v>
       </c>
       <c r="D75" s="56">
-        <v>51.38</v>
+        <v>52.48</v>
       </c>
       <c r="E75" s="56">
-        <v>77.88</v>
+        <v>78.38</v>
       </c>
       <c r="F75" s="56">
-        <v>44.64</v>
+        <v>43.94</v>
       </c>
       <c r="G75" s="57">
-        <v>50.94</v>
+        <v>50.26</v>
       </c>
       <c r="H75" s="56">
         <v>31.947500000000002</v>
@@ -4680,25 +4680,25 @@
         <v>9691.8441885813008</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="48"/>
       <c r="B76" s="59" t="s">
         <v>143</v>
       </c>
       <c r="C76" s="60">
-        <v>2.1615384615384601</v>
+        <v>2.1857142857142899</v>
       </c>
       <c r="D76" s="61">
-        <v>13.015384615384599</v>
+        <v>13.5285714285714</v>
       </c>
       <c r="E76" s="61">
-        <v>39.769230769230802</v>
+        <v>41.242857142857098</v>
       </c>
       <c r="F76" s="61">
-        <v>37.269230769230802</v>
+        <v>37.314285714285703</v>
       </c>
       <c r="G76" s="62">
-        <v>44.815384615384602</v>
+        <v>44.8857142857143</v>
       </c>
       <c r="H76" s="61">
         <v>4.7171428571428597</v>
@@ -4722,25 +4722,25 @@
         <v>24683.240917985</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="48"/>
       <c r="B77" s="38" t="s">
         <v>144</v>
       </c>
       <c r="C77" s="50">
-        <v>2.6</v>
+        <v>2.62222222222222</v>
       </c>
       <c r="D77" s="51">
-        <v>6.9888888888888898</v>
+        <v>7</v>
       </c>
       <c r="E77" s="51">
-        <v>21.588888888888899</v>
+        <v>21.288888888888899</v>
       </c>
       <c r="F77" s="51">
-        <v>44.655555555555601</v>
+        <v>44.866666666666703</v>
       </c>
       <c r="G77" s="52">
-        <v>50.322222222222202</v>
+        <v>50.488888888888901</v>
       </c>
       <c r="H77" s="51">
         <v>3.1427272727272699</v>
@@ -4764,7 +4764,7 @@
         <v>35609.515199871297</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="48"/>
       <c r="B78" s="38" t="s">
         <v>144</v>
@@ -4785,46 +4785,46 @@
         <v>38.966666666666697</v>
       </c>
       <c r="H78" s="51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J78" s="52" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K78" s="51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L78" s="51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M78" s="52" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N78" s="53">
         <v>93593.148939456703</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="48"/>
       <c r="B79" s="54" t="s">
         <v>145</v>
       </c>
       <c r="C79" s="55">
-        <v>0.57297297297297001</v>
+        <v>0.56486486486485998</v>
       </c>
       <c r="D79" s="56">
-        <v>1.3351351351351399</v>
+        <v>1.3243243243243199</v>
       </c>
       <c r="E79" s="56">
-        <v>3.8729729729729701</v>
+        <v>3.8621621621621598</v>
       </c>
       <c r="F79" s="56">
-        <v>33.089189189189199</v>
+        <v>33.029729729729702</v>
       </c>
       <c r="G79" s="57">
-        <v>40.9</v>
+        <v>40.8621621621622</v>
       </c>
       <c r="H79" s="56">
         <v>1.03</v>
@@ -4848,7 +4848,7 @@
         <v>92982.468606086099</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="48"/>
       <c r="B80" s="59" t="s">
         <v>146</v>
@@ -4890,25 +4890,25 @@
         <v>27652.03858937</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="48"/>
       <c r="B81" s="38" t="s">
         <v>147</v>
       </c>
       <c r="C81" s="50">
-        <v>6.1875</v>
+        <v>6.125</v>
       </c>
       <c r="D81" s="51">
-        <v>18.524999999999999</v>
+        <v>18.3125</v>
       </c>
       <c r="E81" s="51">
-        <v>36.975000000000001</v>
+        <v>36.65</v>
       </c>
       <c r="F81" s="51">
-        <v>34.325000000000003</v>
+        <v>34.287500000000001</v>
       </c>
       <c r="G81" s="52">
-        <v>42.4375</v>
+        <v>42.387500000000003</v>
       </c>
       <c r="H81" s="51">
         <v>10.202142857142899</v>
@@ -4932,25 +4932,25 @@
         <v>49314.524719422399</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="48"/>
       <c r="B82" s="38" t="s">
         <v>148</v>
       </c>
       <c r="C82" s="50">
-        <v>26.705128205128201</v>
+        <v>28.125</v>
       </c>
       <c r="D82" s="51">
-        <v>51.130769230769303</v>
+        <v>52.522500000000001</v>
       </c>
       <c r="E82" s="51">
-        <v>76.156410256410297</v>
+        <v>77.042500000000004</v>
       </c>
       <c r="F82" s="51">
-        <v>41.707692307692298</v>
+        <v>41.47</v>
       </c>
       <c r="G82" s="52">
-        <v>48.466666666666697</v>
+        <v>48.26</v>
       </c>
       <c r="H82" s="51">
         <v>29.31</v>
@@ -4974,25 +4974,25 @@
         <v>14486.167408986399</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="48"/>
       <c r="B83" s="54" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="55">
-        <v>1.97167630057803</v>
+        <v>1.9425287356321801</v>
       </c>
       <c r="D83" s="56">
-        <v>7.6254335260115704</v>
+        <v>7.5080459770115002</v>
       </c>
       <c r="E83" s="56">
-        <v>21.5549132947977</v>
+        <v>21.3425287356322</v>
       </c>
       <c r="F83" s="56">
-        <v>35.036416184971102</v>
+        <v>34.911494252873602</v>
       </c>
       <c r="G83" s="57">
-        <v>42.587283236994203</v>
+        <v>42.490804597701199</v>
       </c>
       <c r="H83" s="56">
         <v>3.9020754716981099</v>
@@ -5016,25 +5016,25 @@
         <v>40903.478170348702</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="48"/>
       <c r="B84" s="59" t="s">
         <v>150</v>
       </c>
       <c r="C84" s="60">
-        <v>38.226315789473702</v>
+        <v>40.145000000000003</v>
       </c>
       <c r="D84" s="61">
-        <v>66.978947368421103</v>
+        <v>68.430000000000007</v>
       </c>
       <c r="E84" s="61">
-        <v>89.394736842105303</v>
+        <v>90.204999999999998</v>
       </c>
       <c r="F84" s="61">
-        <v>40.142105263157902</v>
+        <v>39.835000000000001</v>
       </c>
       <c r="G84" s="62">
-        <v>47.272222222222197</v>
+        <v>46.931578947368401</v>
       </c>
       <c r="H84" s="61">
         <v>41.5595454545455</v>
@@ -5058,7 +5058,7 @@
         <v>5781.5187296337799</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="48"/>
       <c r="B85" s="38" t="s">
         <v>151</v>
@@ -5100,25 +5100,25 @@
         <v>9642.3678847710307</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="48"/>
       <c r="B86" s="38" t="s">
         <v>152</v>
       </c>
       <c r="C86" s="50">
-        <v>20.175000000000001</v>
+        <v>20.52</v>
       </c>
       <c r="D86" s="51">
-        <v>42.835000000000001</v>
+        <v>43.375</v>
       </c>
       <c r="E86" s="51">
-        <v>72.535000000000096</v>
+        <v>72.834999999999994</v>
       </c>
       <c r="F86" s="51">
-        <v>41.375</v>
+        <v>41.284999999999997</v>
       </c>
       <c r="G86" s="52">
-        <v>47.744999999999997</v>
+        <v>47.715000000000003</v>
       </c>
       <c r="H86" s="51">
         <v>18.340499999999999</v>
@@ -5142,25 +5142,25 @@
         <v>20753.693944891002</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="48"/>
       <c r="B87" s="38" t="s">
         <v>153</v>
       </c>
       <c r="C87" s="50">
-        <v>5.4872340425531902</v>
+        <v>5.2916666666666696</v>
       </c>
       <c r="D87" s="51">
-        <v>22.463829787234101</v>
+        <v>21.712499999999999</v>
       </c>
       <c r="E87" s="51">
-        <v>54.731914893617002</v>
+        <v>53.2916666666667</v>
       </c>
       <c r="F87" s="51">
-        <v>35.865957446808501</v>
+        <v>35.441666666666698</v>
       </c>
       <c r="G87" s="52">
-        <v>43.638297872340502</v>
+        <v>43.2708333333333</v>
       </c>
       <c r="H87" s="51">
         <v>6.1985185185185196</v>
@@ -5184,7 +5184,7 @@
         <v>20191.4117430693</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="48"/>
       <c r="B88" s="38" t="s">
         <v>154</v>
@@ -5226,25 +5226,25 @@
         <v>45053.396185254103</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="48"/>
       <c r="B89" s="38" t="s">
         <v>155</v>
       </c>
       <c r="C89" s="50">
-        <v>1.94</v>
+        <v>1.9366666666666701</v>
       </c>
       <c r="D89" s="51">
-        <v>6.58</v>
+        <v>6.5366666666666697</v>
       </c>
       <c r="E89" s="51">
-        <v>23.696666666666701</v>
+        <v>23.6</v>
       </c>
       <c r="F89" s="51">
-        <v>38.133333333333397</v>
+        <v>38.11</v>
       </c>
       <c r="G89" s="52">
-        <v>45.15</v>
+        <v>45.133333333333297</v>
       </c>
       <c r="H89" s="51">
         <v>1.66333333333333</v>
@@ -5268,7 +5268,7 @@
         <v>37189.394554015998</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="48"/>
       <c r="B90" s="54" t="s">
         <v>156</v>
@@ -5280,10 +5280,10 @@
         <v>0.71463414634146005</v>
       </c>
       <c r="E90" s="56">
-        <v>2.0609756097560998</v>
+        <v>2.0560975609756098</v>
       </c>
       <c r="F90" s="56">
-        <v>32.0439024390244</v>
+        <v>32.026829268292701</v>
       </c>
       <c r="G90" s="57">
         <v>39.943902439024399</v>
@@ -5310,25 +5310,25 @@
         <v>100881.22222255501</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="48"/>
       <c r="B91" s="59" t="s">
         <v>157</v>
       </c>
       <c r="C91" s="60">
-        <v>32.9892857142857</v>
+        <v>34.496551724137902</v>
       </c>
       <c r="D91" s="61">
-        <v>60.6928571428572</v>
+        <v>61.917241379310397</v>
       </c>
       <c r="E91" s="61">
-        <v>85.757142857142796</v>
+        <v>86.448275862068996</v>
       </c>
       <c r="F91" s="61">
-        <v>40.553571428571402</v>
+        <v>40.3379310344828</v>
       </c>
       <c r="G91" s="62">
-        <v>47.470370370370397</v>
+        <v>47.2392857142857</v>
       </c>
       <c r="H91" s="61">
         <v>36.847241379310297</v>
@@ -5352,25 +5352,25 @@
         <v>6645.8814293147198</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="48"/>
       <c r="B92" s="38" t="s">
         <v>158</v>
       </c>
       <c r="C92" s="50">
-        <v>9.9142857142857199</v>
+        <v>9.2285714285714295</v>
       </c>
       <c r="D92" s="51">
-        <v>36.6</v>
+        <v>34</v>
       </c>
       <c r="E92" s="51">
-        <v>73.428571428571502</v>
+        <v>68.442857142857207</v>
       </c>
       <c r="F92" s="51">
-        <v>33.214285714285701</v>
+        <v>31.8571428571429</v>
       </c>
       <c r="G92" s="52">
-        <v>41.8</v>
+        <v>40.685714285714297</v>
       </c>
       <c r="H92" s="51">
         <v>14.272</v>
@@ -5394,7 +5394,7 @@
         <v>12895.476279763299</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="48"/>
       <c r="B93" s="38" t="s">
         <v>159</v>
@@ -5436,7 +5436,7 @@
         <v>18669.23454542</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="48"/>
       <c r="B94" s="38" t="s">
         <v>160</v>
@@ -5478,25 +5478,25 @@
         <v>38429.385616631203</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="48"/>
       <c r="B95" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C95" s="50">
-        <v>42.373333333333299</v>
+        <v>43.881250000000001</v>
       </c>
       <c r="D95" s="51">
-        <v>68.1933333333333</v>
+        <v>69.581249999999997</v>
       </c>
       <c r="E95" s="51">
-        <v>87.26</v>
+        <v>88.25</v>
       </c>
       <c r="F95" s="51">
-        <v>44.066666666666698</v>
+        <v>43.65</v>
       </c>
       <c r="G95" s="52">
-        <v>50.414285714285697</v>
+        <v>49.9866666666667</v>
       </c>
       <c r="H95" s="51">
         <v>37.619999999999997</v>
@@ -5520,25 +5520,25 @@
         <v>5738.2447707545798</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="48"/>
       <c r="B96" s="54" t="s">
         <v>162</v>
       </c>
       <c r="C96" s="55">
-        <v>2</v>
+        <v>1.97272727272727</v>
       </c>
       <c r="D96" s="56">
-        <v>10.8818181818182</v>
+        <v>10.2090909090909</v>
       </c>
       <c r="E96" s="56">
-        <v>37.972727272727298</v>
+        <v>35.063636363636398</v>
       </c>
       <c r="F96" s="56">
-        <v>33.690909090909102</v>
+        <v>33.0818181818182</v>
       </c>
       <c r="G96" s="57">
-        <v>41.645454545454498</v>
+        <v>41.1727272727273</v>
       </c>
       <c r="H96" s="56">
         <v>2.2821428571428601</v>
@@ -5562,91 +5562,91 @@
         <v>22411.145437528699</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="48"/>
       <c r="B97" s="59" t="s">
         <v>163</v>
       </c>
       <c r="C97" s="60">
-        <v>31.6666666666667</v>
+        <v>30.3576923076923</v>
       </c>
       <c r="D97" s="61">
-        <v>59.41</v>
+        <v>58.292307692307702</v>
       </c>
       <c r="E97" s="61">
-        <v>84.913333333333398</v>
+        <v>84.388461538461598</v>
       </c>
       <c r="F97" s="61">
-        <v>41.303333333333299</v>
+        <v>41.296153846153899</v>
       </c>
       <c r="G97" s="62">
-        <v>47.8827586206897</v>
+        <v>47.907692307692301</v>
       </c>
       <c r="H97" s="61">
-        <v>34.7960606060606</v>
+        <v>30.152307692307701</v>
       </c>
       <c r="I97" s="61">
-        <v>36.3809090909091</v>
+        <v>31.583846153846199</v>
       </c>
       <c r="J97" s="62">
-        <v>33.477575757575799</v>
+        <v>28.876923076923099</v>
       </c>
       <c r="K97" s="61">
-        <v>39.371818181818199</v>
+        <v>35.085769230769202</v>
       </c>
       <c r="L97" s="61">
-        <v>38.054545454545497</v>
+        <v>33.602307692307697</v>
       </c>
       <c r="M97" s="62">
-        <v>40.427878787878797</v>
+        <v>36.261153846153903</v>
       </c>
       <c r="N97" s="63">
-        <v>9417.35340430014</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>9980.3927440706302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="48"/>
       <c r="B98" s="54" t="s">
         <v>164</v>
       </c>
       <c r="C98" s="55">
-        <v>9.5363636363636406</v>
+        <v>8.11</v>
       </c>
       <c r="D98" s="56">
-        <v>33.227272727272698</v>
+        <v>30.15</v>
       </c>
       <c r="E98" s="56">
-        <v>66.409090909090907</v>
+        <v>64.05</v>
       </c>
       <c r="F98" s="56">
-        <v>37.681818181818201</v>
+        <v>37.72</v>
       </c>
       <c r="G98" s="57">
-        <v>45.227272727272698</v>
+        <v>45.21</v>
       </c>
       <c r="H98" s="56">
-        <v>13.8305263157895</v>
+        <v>9.44</v>
       </c>
       <c r="I98" s="56">
-        <v>13.901578947368399</v>
+        <v>9.2706666666666706</v>
       </c>
       <c r="J98" s="57">
-        <v>13.842631578947399</v>
+        <v>9.5</v>
       </c>
       <c r="K98" s="56">
-        <v>15.487894736842099</v>
+        <v>11.736000000000001</v>
       </c>
       <c r="L98" s="56">
-        <v>14.5831578947368</v>
+        <v>10.93</v>
       </c>
       <c r="M98" s="57">
-        <v>15.8710526315789</v>
+        <v>12.135999999999999</v>
       </c>
       <c r="N98" s="58">
-        <v>19989.166093751399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+        <v>20083.719205813999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="64"/>
       <c r="B99" s="65"/>
       <c r="C99" s="66"/>
@@ -5662,7 +5662,7 @@
       <c r="M99" s="66"/>
       <c r="N99" s="66"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -5679,7 +5679,7 @@
       <c r="M100" s="67"/>
       <c r="N100" s="67"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="M101" s="67"/>
       <c r="N101" s="67"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="M102" s="67"/>
       <c r="N102" s="67"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="M103" s="67"/>
       <c r="N103" s="67"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
@@ -5747,7 +5747,7 @@
       <c r="M104" s="67"/>
       <c r="N104" s="67"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="M105" s="67"/>
       <c r="N105" s="67"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C106" s="67"/>
       <c r="D106" s="67"/>
       <c r="E106" s="67"/>
@@ -5778,7 +5778,7 @@
       <c r="M106" s="67"/>
       <c r="N106" s="67"/>
     </row>
-    <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="68" t="s">
         <v>171</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="M107" s="67"/>
       <c r="N107" s="67"/>
     </row>
-    <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="68"/>
       <c r="C108" s="67"/>
       <c r="D108" s="67"/>
@@ -5810,7 +5810,7 @@
       <c r="M108" s="67"/>
       <c r="N108" s="67"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="M109" s="67"/>
       <c r="N109" s="67"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>175</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="M110" s="67"/>
       <c r="N110" s="67"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>176</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="M111" s="67"/>
       <c r="N111" s="67"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="M112" s="67"/>
       <c r="N112" s="67"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>173</v>
       </c>
@@ -5895,7 +5895,7 @@
       <c r="M113" s="67"/>
       <c r="N113" s="67"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="67"/>
       <c r="D114" s="67"/>
@@ -5912,12 +5912,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3C7D13CB-947D-40E5-935A-766020DFFFAD}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8422A7E6-9A3D-4283-8C4F-8F62544286DF}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{E5F0C8AC-14F3-4AB0-AC12-2F1A509D3F2B}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{75548F20-55B0-4C5D-84CD-F653CC369A86}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{ACE5497D-9262-484E-B221-D403FE18B7FD}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{23BF8BD9-95D2-4B2A-A1EE-69142B6BF15C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E7345E5D-58F5-4E62-8001-5A90809C163A}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A6341F6A-8B6A-4A5D-972A-986483D29647}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{E24E73B4-18F2-4977-980E-7CEDB31A0C2E}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{3B532573-1898-4034-BCEA-0212A81CE6DE}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{BBB34D82-CAE1-40A5-917B-9E553B462083}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{029C0C09-F36C-4C4A-842D-BD66BA82E4BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId7"/>
